--- a/data/Codebook_template.xlsx
+++ b/data/Codebook_template.xlsx
@@ -10,7 +10,7 @@
   </mc:AlternateContent>
   <xr:revisionPtr revIDLastSave="0" documentId="8_{588FB3E4-BBC5-4EDF-85C4-9F46F69E5C54}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-90" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Control" sheetId="1" r:id="rId1"/>
@@ -1722,6 +1722,12 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1744,12 +1750,6 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -2040,20 +2040,20 @@
       <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" outlineLevelRow="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1" outlineLevelRow="1" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="2.7109375" customWidth="1"/>
-    <col min="2" max="2" width="10.7109375" customWidth="1"/>
-    <col min="3" max="3" width="20.28515625" customWidth="1"/>
-    <col min="4" max="4" width="25.28515625" customWidth="1"/>
-    <col min="5" max="5" width="12.85546875" customWidth="1"/>
-    <col min="6" max="6" width="25.42578125" customWidth="1"/>
-    <col min="7" max="9" width="10.7109375" customWidth="1"/>
+    <col min="1" max="1" width="2.6640625" customWidth="1"/>
+    <col min="2" max="2" width="10.6640625" customWidth="1"/>
+    <col min="3" max="3" width="20.33203125" customWidth="1"/>
+    <col min="4" max="4" width="25.33203125" customWidth="1"/>
+    <col min="5" max="5" width="12.88671875" customWidth="1"/>
+    <col min="6" max="6" width="25.44140625" customWidth="1"/>
+    <col min="7" max="9" width="10.6640625" customWidth="1"/>
     <col min="10" max="10" width="15" customWidth="1"/>
-    <col min="11" max="26" width="10.7109375" customWidth="1"/>
+    <col min="11" max="26" width="10.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:13" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B2" s="1" t="s">
         <v>0</v>
       </c>
@@ -2066,7 +2066,7 @@
       <c r="I2" s="2"/>
       <c r="J2" s="2"/>
     </row>
-    <row r="3" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:13" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B3" s="3" t="s">
         <v>1</v>
       </c>
@@ -2079,7 +2079,7 @@
       <c r="I3" s="2"/>
       <c r="J3" s="2"/>
     </row>
-    <row r="4" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:13" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B4" s="3" t="s">
         <v>2</v>
       </c>
@@ -2092,7 +2092,7 @@
       <c r="I4" s="2"/>
       <c r="J4" s="2"/>
     </row>
-    <row r="5" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:13" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B5" s="3" t="s">
         <v>3</v>
       </c>
@@ -2105,7 +2105,7 @@
       <c r="I5" s="2"/>
       <c r="J5" s="2"/>
     </row>
-    <row r="6" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:13" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B6" s="3" t="s">
         <v>4</v>
       </c>
@@ -2118,23 +2118,23 @@
       <c r="I6" s="2"/>
       <c r="J6" s="2"/>
     </row>
-    <row r="10" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B10" s="114" t="s">
+    <row r="10" spans="2:13" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="B10" s="116" t="s">
         <v>5</v>
       </c>
-      <c r="C10" s="115"/>
-      <c r="D10" s="115"/>
-      <c r="E10" s="115"/>
-      <c r="F10" s="115"/>
-      <c r="G10" s="115"/>
-      <c r="H10" s="115"/>
-      <c r="I10" s="115"/>
-      <c r="J10" s="116"/>
+      <c r="C10" s="117"/>
+      <c r="D10" s="117"/>
+      <c r="E10" s="117"/>
+      <c r="F10" s="117"/>
+      <c r="G10" s="117"/>
+      <c r="H10" s="117"/>
+      <c r="I10" s="117"/>
+      <c r="J10" s="118"/>
       <c r="K10" s="4"/>
       <c r="L10" s="4"/>
       <c r="M10" s="4"/>
     </row>
-    <row r="11" spans="2:13" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:13" ht="14.4" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="B11" s="5" t="s">
         <v>6</v>
       </c>
@@ -2172,7 +2172,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="12" spans="2:13" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:13" ht="14.4" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="B12" s="5" t="s">
         <v>10</v>
       </c>
@@ -2210,7 +2210,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="13" spans="2:13" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:13" ht="14.4" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="B13" s="5"/>
       <c r="C13" s="5" t="s">
         <v>14</v>
@@ -2246,7 +2246,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="14" spans="2:13" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:13" ht="14.4" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="B14" s="5"/>
       <c r="C14" s="5" t="s">
         <v>23</v>
@@ -2270,7 +2270,7 @@
       <c r="L14" s="5"/>
       <c r="M14" s="5"/>
     </row>
-    <row r="15" spans="2:13" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:13" ht="14.4" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="B15" s="5"/>
       <c r="C15" s="5" t="s">
         <v>27</v>
@@ -2290,7 +2290,7 @@
       <c r="L15" s="5"/>
       <c r="M15" s="5"/>
     </row>
-    <row r="16" spans="2:13" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:13" ht="14.4" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="B16" s="5"/>
       <c r="C16" s="5" t="s">
         <v>30</v>
@@ -2306,10 +2306,10 @@
       <c r="L16" s="5"/>
       <c r="M16" s="5"/>
     </row>
-    <row r="17" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="18" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="19" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="20" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="18" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="19" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="20" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B20" s="81"/>
       <c r="C20" s="81" t="s">
         <v>154</v>
@@ -2324,976 +2324,976 @@
       <c r="I20" s="81"/>
       <c r="J20" s="81"/>
     </row>
-    <row r="21" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="22" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="23" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="24" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="25" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="26" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="27" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="28" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="29" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="30" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="31" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="32" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="33" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="34" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="37" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="38" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="39" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="40" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="41" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="42" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="43" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="44" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="46" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="47" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="48" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="49" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="51" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="52" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="53" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="54" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="55" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="56" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="57" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="58" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="59" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="60" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="61" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="62" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="63" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="64" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="65" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="66" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="67" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="68" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="69" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="70" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="71" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="72" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="73" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="74" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="75" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="76" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="77" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="78" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="79" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="80" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="81" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="82" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="83" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="84" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="85" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="86" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="87" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="88" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="89" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="90" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="91" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="92" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="93" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="94" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="95" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="96" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="97" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="98" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="99" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="100" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="101" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="102" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="103" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="104" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="105" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="106" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="107" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="108" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="109" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="110" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="111" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="112" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="113" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="114" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="115" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="116" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="117" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="118" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="119" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="120" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="121" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="122" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="123" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="124" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="125" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="126" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="127" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="128" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="129" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="130" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="131" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="132" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="133" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="134" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="135" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="136" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="137" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="138" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="139" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="140" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="141" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="142" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="143" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="144" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="145" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="146" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="147" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="148" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="149" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="150" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="151" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="152" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="153" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="154" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="155" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="156" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="157" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="158" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="159" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="160" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="161" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="162" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="163" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="164" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="165" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="166" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="167" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="168" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="169" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="170" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="171" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="172" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="173" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="174" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="175" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="176" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="177" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="178" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="179" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="180" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="181" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="182" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="183" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="184" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="185" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="186" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="187" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="188" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="189" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="190" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="191" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="192" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="193" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="194" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="195" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="196" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="197" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="198" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="199" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="200" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="201" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="202" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="203" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="204" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="205" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="206" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="207" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="208" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="209" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="210" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="211" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="212" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="213" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="214" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="215" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="216" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="217" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="218" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="219" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="220" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="221" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="222" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="223" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="224" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="225" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="226" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="227" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="228" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="229" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="230" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="231" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="232" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="233" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="234" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="235" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="236" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="237" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="238" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="239" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="240" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="241" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="242" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="243" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="244" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="245" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="246" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="247" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="248" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="249" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="250" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="251" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="252" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="253" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="254" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="255" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="256" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="257" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="258" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="259" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="260" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="261" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="262" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="263" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="264" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="265" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="266" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="267" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="268" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="269" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="270" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="271" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="272" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="273" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="274" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="275" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="276" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="277" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="278" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="279" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="280" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="281" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="282" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="283" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="284" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="285" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="286" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="287" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="288" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="289" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="290" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="291" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="292" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="293" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="294" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="295" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="296" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="297" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="298" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="299" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="300" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="301" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="302" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="303" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="304" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="305" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="306" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="307" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="308" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="309" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="310" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="311" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="312" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="313" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="314" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="315" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="316" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="317" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="318" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="319" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="320" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="321" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="322" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="323" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="324" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="325" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="326" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="327" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="328" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="329" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="330" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="331" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="332" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="333" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="334" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="335" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="336" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="337" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="338" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="339" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="340" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="341" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="342" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="343" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="344" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="345" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="346" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="347" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="348" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="349" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="350" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="351" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="352" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="353" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="354" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="355" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="356" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="357" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="358" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="359" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="360" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="361" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="362" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="363" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="364" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="365" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="366" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="367" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="368" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="369" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="370" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="371" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="372" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="373" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="374" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="375" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="376" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="377" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="378" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="379" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="380" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="381" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="382" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="383" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="384" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="385" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="386" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="387" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="388" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="389" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="390" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="391" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="392" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="393" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="394" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="395" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="396" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="397" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="398" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="399" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="400" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="401" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="402" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="403" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="404" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="405" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="406" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="407" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="408" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="409" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="410" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="411" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="412" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="413" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="414" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="415" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="416" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="417" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="418" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="419" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="420" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="421" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="422" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="423" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="424" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="425" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="426" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="427" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="428" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="429" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="430" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="431" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="432" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="433" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="434" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="435" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="436" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="437" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="438" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="439" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="440" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="441" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="442" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="443" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="444" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="445" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="446" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="447" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="448" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="449" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="450" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="451" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="452" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="453" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="454" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="455" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="456" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="457" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="458" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="459" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="460" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="461" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="462" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="463" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="464" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="465" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="466" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="467" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="468" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="469" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="470" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="471" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="472" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="473" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="474" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="475" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="476" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="477" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="478" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="479" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="480" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="481" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="482" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="483" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="484" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="485" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="486" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="487" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="488" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="489" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="490" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="491" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="492" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="493" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="494" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="495" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="496" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="497" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="498" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="499" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="500" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="501" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="502" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="503" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="504" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="505" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="506" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="507" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="508" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="509" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="510" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="511" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="512" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="513" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="514" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="515" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="516" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="517" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="518" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="519" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="520" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="521" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="522" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="523" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="524" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="525" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="526" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="527" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="528" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="529" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="530" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="531" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="532" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="533" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="534" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="535" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="536" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="537" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="538" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="539" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="540" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="541" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="542" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="543" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="544" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="545" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="546" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="547" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="548" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="549" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="550" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="551" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="552" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="553" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="554" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="555" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="556" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="557" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="558" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="559" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="560" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="561" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="562" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="563" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="564" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="565" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="566" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="567" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="568" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="569" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="570" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="571" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="572" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="573" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="574" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="575" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="576" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="577" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="578" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="579" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="580" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="581" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="582" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="583" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="584" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="585" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="586" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="587" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="588" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="589" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="590" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="591" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="592" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="593" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="594" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="595" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="596" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="597" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="598" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="599" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="600" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="601" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="602" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="603" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="604" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="605" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="606" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="607" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="608" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="609" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="610" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="611" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="612" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="613" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="614" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="615" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="616" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="617" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="618" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="619" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="620" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="621" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="622" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="623" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="624" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="625" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="626" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="627" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="628" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="629" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="630" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="631" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="632" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="633" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="634" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="635" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="636" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="637" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="638" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="639" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="640" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="641" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="642" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="643" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="644" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="645" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="646" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="647" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="648" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="649" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="650" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="651" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="652" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="653" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="654" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="655" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="656" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="657" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="658" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="659" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="660" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="661" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="662" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="663" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="664" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="665" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="666" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="667" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="668" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="669" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="670" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="671" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="672" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="673" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="674" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="675" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="676" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="677" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="678" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="679" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="680" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="681" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="682" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="683" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="684" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="685" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="686" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="687" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="688" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="689" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="690" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="691" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="692" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="693" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="694" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="695" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="696" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="697" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="698" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="699" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="700" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="701" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="702" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="703" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="704" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="705" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="706" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="707" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="708" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="709" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="710" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="711" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="712" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="713" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="714" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="715" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="716" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="717" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="718" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="719" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="720" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="721" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="722" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="723" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="724" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="725" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="726" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="727" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="728" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="729" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="730" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="731" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="732" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="733" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="734" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="735" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="736" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="737" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="738" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="739" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="740" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="741" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="742" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="743" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="744" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="745" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="746" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="747" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="748" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="749" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="750" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="751" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="752" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="753" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="754" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="755" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="756" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="757" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="758" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="759" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="760" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="761" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="762" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="763" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="764" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="765" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="766" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="767" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="768" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="769" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="770" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="771" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="772" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="773" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="774" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="775" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="776" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="777" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="778" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="779" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="780" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="781" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="782" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="783" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="784" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="785" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="786" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="787" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="788" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="789" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="790" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="791" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="792" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="793" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="794" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="795" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="796" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="797" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="798" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="799" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="800" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="801" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="802" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="803" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="804" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="805" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="806" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="807" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="808" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="809" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="810" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="811" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="812" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="813" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="814" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="815" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="816" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="817" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="818" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="819" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="820" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="821" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="822" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="823" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="824" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="825" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="826" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="827" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="828" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="829" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="830" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="831" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="832" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="833" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="834" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="835" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="836" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="837" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="838" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="839" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="840" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="841" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="842" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="843" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="844" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="845" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="846" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="847" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="848" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="849" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="850" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="851" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="852" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="853" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="854" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="855" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="856" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="857" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="858" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="859" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="860" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="861" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="862" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="863" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="864" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="865" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="866" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="867" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="868" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="869" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="870" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="871" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="872" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="873" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="874" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="875" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="876" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="877" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="878" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="879" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="880" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="881" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="882" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="883" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="884" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="885" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="886" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="887" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="888" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="889" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="890" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="891" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="892" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="893" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="894" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="895" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="896" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="897" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="898" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="899" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="900" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="901" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="902" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="903" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="904" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="905" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="906" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="907" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="908" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="909" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="910" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="911" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="912" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="913" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="914" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="915" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="916" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="917" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="918" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="919" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="920" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="921" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="922" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="923" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="924" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="925" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="926" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="927" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="928" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="929" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="930" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="931" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="932" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="933" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="934" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="935" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="936" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="937" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="938" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="939" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="940" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="941" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="942" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="943" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="944" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="945" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="946" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="947" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="948" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="949" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="950" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="951" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="952" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="953" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="954" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="955" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="956" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="957" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="958" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="959" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="960" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="961" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="962" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="963" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="964" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="965" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="966" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="967" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="968" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="969" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="970" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="971" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="972" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="973" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="974" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="975" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="976" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="977" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="978" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="979" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="980" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="981" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="982" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="983" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="984" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="985" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="986" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="987" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="988" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="989" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="990" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="21" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="22" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="23" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="24" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="25" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="26" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="27" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="28" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="29" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="30" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="31" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="32" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="33" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="34" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="35" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="36" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="37" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="38" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="39" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="40" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="41" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="42" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="43" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="44" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="45" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="46" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="47" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="48" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="49" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="51" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="52" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="53" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="54" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="55" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="56" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="57" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="58" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="59" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="60" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="61" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="62" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="63" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="64" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="65" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="66" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="67" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="68" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="69" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="70" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="71" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="72" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="73" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="74" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="75" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="76" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="77" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="78" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="79" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="80" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="81" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="82" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="83" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="84" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="85" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="86" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="87" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="88" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="89" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="90" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="91" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="92" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="93" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="94" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="95" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="96" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="97" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="98" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="99" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="100" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="101" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="102" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="103" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="104" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="105" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="106" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="107" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="108" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="109" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="110" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="111" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="112" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="113" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="114" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="115" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="116" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="117" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="118" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="119" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="120" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="121" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="122" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="123" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="124" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="125" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="126" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="127" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="128" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="129" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="130" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="131" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="132" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="133" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="134" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="135" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="136" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="137" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="138" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="139" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="140" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="141" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="142" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="143" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="144" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="145" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="146" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="147" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="148" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="149" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="150" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="151" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="152" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="153" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="154" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="155" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="156" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="157" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="158" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="159" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="160" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="161" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="162" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="163" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="164" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="165" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="166" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="167" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="168" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="169" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="170" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="171" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="172" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="173" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="174" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="175" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="176" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="177" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="178" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="179" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="180" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="181" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="182" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="183" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="184" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="185" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="186" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="187" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="188" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="189" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="190" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="191" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="192" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="193" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="194" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="195" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="196" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="197" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="198" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="199" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="200" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="201" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="202" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="203" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="204" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="205" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="206" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="207" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="208" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="209" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="210" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="211" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="212" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="213" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="214" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="215" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="216" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="217" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="218" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="219" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="220" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="221" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="222" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="223" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="224" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="225" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="226" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="227" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="228" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="229" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="230" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="231" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="232" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="233" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="234" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="235" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="236" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="237" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="238" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="239" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="240" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="241" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="242" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="243" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="244" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="245" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="246" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="247" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="248" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="249" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="250" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="251" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="252" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="253" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="254" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="255" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="256" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="257" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="258" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="259" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="260" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="261" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="262" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="263" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="264" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="265" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="266" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="267" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="268" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="269" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="270" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="271" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="272" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="273" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="274" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="275" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="276" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="277" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="278" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="279" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="280" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="281" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="282" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="283" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="284" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="285" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="286" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="287" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="288" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="289" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="290" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="291" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="292" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="293" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="294" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="295" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="296" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="297" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="298" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="299" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="300" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="301" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="302" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="303" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="304" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="305" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="306" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="307" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="308" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="309" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="310" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="311" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="312" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="313" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="314" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="315" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="316" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="317" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="318" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="319" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="320" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="321" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="322" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="323" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="324" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="325" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="326" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="327" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="328" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="329" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="330" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="331" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="332" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="333" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="334" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="335" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="336" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="337" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="338" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="339" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="340" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="341" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="342" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="343" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="344" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="345" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="346" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="347" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="348" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="349" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="350" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="351" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="352" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="353" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="354" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="355" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="356" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="357" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="358" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="359" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="360" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="361" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="362" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="363" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="364" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="365" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="366" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="367" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="368" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="369" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="370" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="371" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="372" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="373" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="374" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="375" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="376" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="377" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="378" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="379" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="380" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="381" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="382" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="383" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="384" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="385" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="386" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="387" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="388" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="389" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="390" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="391" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="392" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="393" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="394" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="395" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="396" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="397" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="398" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="399" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="400" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="401" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="402" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="403" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="404" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="405" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="406" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="407" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="408" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="409" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="410" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="411" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="412" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="413" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="414" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="415" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="416" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="417" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="418" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="419" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="420" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="421" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="422" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="423" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="424" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="425" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="426" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="427" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="428" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="429" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="430" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="431" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="432" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="433" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="434" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="435" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="436" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="437" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="438" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="439" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="440" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="441" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="442" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="443" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="444" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="445" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="446" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="447" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="448" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="449" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="450" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="451" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="452" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="453" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="454" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="455" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="456" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="457" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="458" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="459" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="460" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="461" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="462" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="463" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="464" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="465" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="466" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="467" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="468" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="469" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="470" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="471" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="472" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="473" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="474" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="475" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="476" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="477" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="478" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="479" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="480" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="481" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="482" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="483" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="484" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="485" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="486" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="487" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="488" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="489" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="490" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="491" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="492" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="493" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="494" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="495" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="496" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="497" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="498" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="499" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="500" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="501" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="502" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="503" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="504" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="505" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="506" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="507" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="508" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="509" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="510" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="511" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="512" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="513" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="514" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="515" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="516" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="517" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="518" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="519" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="520" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="521" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="522" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="523" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="524" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="525" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="526" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="527" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="528" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="529" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="530" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="531" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="532" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="533" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="534" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="535" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="536" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="537" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="538" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="539" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="540" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="541" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="542" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="543" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="544" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="545" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="546" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="547" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="548" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="549" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="550" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="551" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="552" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="553" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="554" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="555" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="556" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="557" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="558" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="559" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="560" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="561" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="562" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="563" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="564" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="565" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="566" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="567" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="568" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="569" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="570" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="571" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="572" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="573" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="574" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="575" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="576" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="577" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="578" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="579" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="580" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="581" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="582" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="583" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="584" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="585" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="586" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="587" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="588" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="589" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="590" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="591" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="592" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="593" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="594" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="595" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="596" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="597" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="598" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="599" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="600" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="601" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="602" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="603" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="604" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="605" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="606" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="607" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="608" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="609" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="610" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="611" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="612" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="613" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="614" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="615" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="616" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="617" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="618" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="619" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="620" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="621" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="622" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="623" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="624" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="625" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="626" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="627" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="628" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="629" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="630" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="631" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="632" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="633" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="634" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="635" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="636" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="637" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="638" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="639" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="640" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="641" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="642" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="643" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="644" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="645" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="646" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="647" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="648" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="649" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="650" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="651" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="652" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="653" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="654" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="655" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="656" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="657" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="658" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="659" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="660" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="661" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="662" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="663" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="664" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="665" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="666" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="667" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="668" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="669" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="670" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="671" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="672" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="673" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="674" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="675" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="676" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="677" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="678" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="679" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="680" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="681" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="682" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="683" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="684" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="685" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="686" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="687" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="688" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="689" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="690" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="691" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="692" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="693" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="694" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="695" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="696" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="697" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="698" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="699" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="700" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="701" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="702" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="703" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="704" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="705" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="706" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="707" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="708" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="709" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="710" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="711" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="712" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="713" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="714" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="715" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="716" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="717" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="718" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="719" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="720" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="721" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="722" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="723" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="724" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="725" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="726" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="727" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="728" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="729" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="730" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="731" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="732" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="733" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="734" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="735" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="736" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="737" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="738" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="739" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="740" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="741" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="742" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="743" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="744" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="745" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="746" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="747" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="748" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="749" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="750" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="751" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="752" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="753" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="754" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="755" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="756" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="757" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="758" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="759" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="760" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="761" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="762" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="763" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="764" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="765" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="766" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="767" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="768" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="769" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="770" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="771" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="772" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="773" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="774" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="775" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="776" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="777" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="778" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="779" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="780" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="781" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="782" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="783" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="784" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="785" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="786" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="787" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="788" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="789" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="790" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="791" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="792" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="793" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="794" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="795" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="796" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="797" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="798" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="799" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="800" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="801" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="802" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="803" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="804" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="805" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="806" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="807" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="808" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="809" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="810" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="811" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="812" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="813" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="814" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="815" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="816" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="817" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="818" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="819" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="820" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="821" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="822" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="823" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="824" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="825" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="826" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="827" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="828" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="829" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="830" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="831" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="832" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="833" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="834" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="835" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="836" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="837" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="838" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="839" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="840" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="841" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="842" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="843" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="844" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="845" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="846" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="847" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="848" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="849" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="850" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="851" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="852" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="853" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="854" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="855" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="856" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="857" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="858" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="859" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="860" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="861" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="862" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="863" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="864" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="865" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="866" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="867" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="868" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="869" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="870" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="871" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="872" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="873" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="874" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="875" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="876" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="877" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="878" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="879" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="880" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="881" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="882" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="883" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="884" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="885" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="886" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="887" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="888" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="889" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="890" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="891" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="892" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="893" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="894" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="895" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="896" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="897" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="898" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="899" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="900" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="901" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="902" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="903" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="904" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="905" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="906" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="907" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="908" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="909" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="910" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="911" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="912" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="913" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="914" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="915" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="916" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="917" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="918" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="919" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="920" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="921" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="922" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="923" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="924" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="925" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="926" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="927" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="928" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="929" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="930" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="931" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="932" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="933" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="934" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="935" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="936" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="937" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="938" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="939" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="940" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="941" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="942" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="943" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="944" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="945" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="946" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="947" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="948" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="949" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="950" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="951" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="952" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="953" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="954" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="955" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="956" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="957" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="958" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="959" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="960" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="961" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="962" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="963" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="964" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="965" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="966" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="967" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="968" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="969" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="970" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="971" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="972" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="973" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="974" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="975" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="976" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="977" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="978" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="979" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="980" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="981" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="982" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="983" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="984" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="985" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="986" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="987" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="988" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="989" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="990" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="B10:J10"/>
@@ -3313,67 +3313,67 @@
   </sheetPr>
   <dimension ref="B1:N1008"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A56" zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="6" topLeftCell="G1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="H15" sqref="H15"/>
+      <selection pane="topRight" activeCell="I60" sqref="I60"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" outlineLevelRow="1" outlineLevelCol="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1" outlineLevelRow="1" outlineLevelCol="1" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="2.7109375" customWidth="1"/>
-    <col min="2" max="2" width="2.7109375" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="1" max="1" width="2.6640625" customWidth="1"/>
+    <col min="2" max="2" width="2.6640625" hidden="1" customWidth="1" outlineLevel="1"/>
     <col min="3" max="3" width="6" customWidth="1" collapsed="1"/>
-    <col min="4" max="5" width="2.7109375" customWidth="1"/>
-    <col min="6" max="6" width="52.7109375" customWidth="1" outlineLevel="1"/>
-    <col min="7" max="7" width="2.7109375" customWidth="1"/>
-    <col min="8" max="8" width="15.7109375" customWidth="1" outlineLevel="1"/>
-    <col min="9" max="9" width="40.7109375" customWidth="1" outlineLevel="1"/>
-    <col min="10" max="10" width="9.140625" customWidth="1" outlineLevel="1"/>
-    <col min="11" max="11" width="2.7109375" customWidth="1"/>
-    <col min="12" max="12" width="25.42578125" customWidth="1" outlineLevel="1"/>
+    <col min="4" max="5" width="2.6640625" customWidth="1"/>
+    <col min="6" max="6" width="52.6640625" customWidth="1" outlineLevel="1"/>
+    <col min="7" max="7" width="2.6640625" customWidth="1"/>
+    <col min="8" max="8" width="15.6640625" customWidth="1" outlineLevel="1"/>
+    <col min="9" max="9" width="40.6640625" customWidth="1" outlineLevel="1"/>
+    <col min="10" max="10" width="9.109375" customWidth="1" outlineLevel="1"/>
+    <col min="11" max="11" width="2.6640625" customWidth="1"/>
+    <col min="12" max="12" width="25.44140625" customWidth="1" outlineLevel="1"/>
     <col min="13" max="13" width="24" customWidth="1" outlineLevel="1"/>
-    <col min="14" max="14" width="6.7109375" customWidth="1"/>
+    <col min="14" max="14" width="6.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:14" ht="14.4" x14ac:dyDescent="0.3">
       <c r="C1" s="6"/>
       <c r="F1" s="7"/>
     </row>
-    <row r="2" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:14" ht="14.4" x14ac:dyDescent="0.3">
       <c r="C2" s="6"/>
       <c r="F2" s="112" t="s">
         <v>192</v>
       </c>
-      <c r="H2" s="123" t="s">
+      <c r="H2" s="125" t="s">
         <v>159</v>
       </c>
-      <c r="I2" s="123"/>
-      <c r="J2" s="123"/>
-      <c r="L2" s="119" t="s">
+      <c r="I2" s="125"/>
+      <c r="J2" s="125"/>
+      <c r="L2" s="121" t="s">
         <v>155</v>
       </c>
-      <c r="M2" s="120"/>
-    </row>
-    <row r="3" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="M2" s="122"/>
+    </row>
+    <row r="3" spans="2:14" ht="14.4" x14ac:dyDescent="0.3">
       <c r="C3" s="6"/>
       <c r="F3" s="7"/>
-      <c r="H3" s="123"/>
-      <c r="I3" s="123"/>
-      <c r="J3" s="123"/>
-      <c r="L3" s="119" t="s">
+      <c r="H3" s="125"/>
+      <c r="I3" s="125"/>
+      <c r="J3" s="125"/>
+      <c r="L3" s="121" t="s">
         <v>31</v>
       </c>
-      <c r="M3" s="120"/>
-    </row>
-    <row r="4" spans="2:14" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M3" s="122"/>
+    </row>
+    <row r="4" spans="2:14" ht="30.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C4" s="6"/>
       <c r="F4" s="7"/>
-      <c r="L4" s="121" t="s">
+      <c r="L4" s="123" t="s">
         <v>32</v>
       </c>
-      <c r="M4" s="122"/>
-    </row>
-    <row r="5" spans="2:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="M4" s="124"/>
+    </row>
+    <row r="5" spans="2:14" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C5" s="8" t="s">
         <v>34</v>
       </c>
@@ -3400,7 +3400,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="6" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:14" ht="14.4" x14ac:dyDescent="0.3">
       <c r="C6" s="6"/>
       <c r="F6" s="7"/>
       <c r="G6" s="14" t="s">
@@ -3409,7 +3409,7 @@
       <c r="L6" s="15"/>
       <c r="M6" s="16"/>
     </row>
-    <row r="7" spans="2:14" ht="45" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:14" ht="45" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="B7" s="14"/>
       <c r="C7" s="83" t="s">
         <v>156</v>
@@ -3432,7 +3432,7 @@
       <c r="L7" s="38"/>
       <c r="M7" s="39"/>
     </row>
-    <row r="8" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:14" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B8" s="17"/>
       <c r="C8" s="18" t="s">
         <v>41</v>
@@ -3455,7 +3455,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="9" spans="2:14" ht="60" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:14" ht="60" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="B9" s="24">
         <v>1</v>
       </c>
@@ -3471,7 +3471,7 @@
       <c r="G9" s="24" t="s">
         <v>33</v>
       </c>
-      <c r="H9" s="124" t="s">
+      <c r="H9" s="114" t="s">
         <v>194</v>
       </c>
       <c r="I9" s="76" t="s">
@@ -3484,7 +3484,7 @@
       <c r="L9" s="27"/>
       <c r="M9" s="65"/>
     </row>
-    <row r="10" spans="2:14" ht="45" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:14" ht="45" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="B10" s="29">
         <v>1</v>
       </c>
@@ -3515,7 +3515,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="11" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:14" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B11" s="17"/>
       <c r="C11" s="18" t="s">
         <v>45</v>
@@ -3533,7 +3533,7 @@
       <c r="L11" s="22"/>
       <c r="M11" s="23"/>
     </row>
-    <row r="12" spans="2:14" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:14" ht="14.4" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="C12" s="6"/>
       <c r="D12" s="40" t="s">
         <v>47</v>
@@ -3550,7 +3550,7 @@
       <c r="L12" s="45"/>
       <c r="M12" s="46"/>
     </row>
-    <row r="13" spans="2:14" ht="30" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:14" ht="30" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="B13" s="14">
         <v>1</v>
       </c>
@@ -3576,7 +3576,7 @@
       <c r="L13" s="91"/>
       <c r="M13" s="92"/>
     </row>
-    <row r="14" spans="2:14" ht="30" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:14" ht="30" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="B14" s="14"/>
       <c r="C14" s="93" t="str">
         <f>_xlfn.CONCAT($C$13,".1")</f>
@@ -3594,7 +3594,7 @@
       <c r="L14" s="38"/>
       <c r="M14" s="89"/>
     </row>
-    <row r="15" spans="2:14" ht="30" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:14" ht="30" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="B15" s="14"/>
       <c r="C15" s="93" t="str">
         <f>_xlfn.CONCAT($C$13,".2")</f>
@@ -3612,7 +3612,7 @@
       <c r="L15" s="38"/>
       <c r="M15" s="89"/>
     </row>
-    <row r="16" spans="2:14" ht="30" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:14" ht="30" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="B16" s="14"/>
       <c r="C16" s="93" t="str">
         <f>_xlfn.CONCAT($C$13,".3")</f>
@@ -3630,7 +3630,7 @@
       <c r="L16" s="38"/>
       <c r="M16" s="89"/>
     </row>
-    <row r="17" spans="2:13" ht="30" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:13" ht="30" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="B17" s="14"/>
       <c r="C17" s="93" t="str">
         <f>_xlfn.CONCAT($C$13,".4")</f>
@@ -3650,7 +3650,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="18" spans="2:13" ht="30" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:13" ht="30" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="B18" s="14"/>
       <c r="C18" s="93" t="str">
         <f>_xlfn.CONCAT($C$13,".5")</f>
@@ -3668,7 +3668,7 @@
       <c r="L18" s="38"/>
       <c r="M18" s="89"/>
     </row>
-    <row r="19" spans="2:13" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:13" ht="14.4" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="C19" s="6"/>
       <c r="D19" s="47"/>
       <c r="E19" s="48" t="s">
@@ -3685,7 +3685,7 @@
       <c r="L19" s="51"/>
       <c r="M19" s="52"/>
     </row>
-    <row r="20" spans="2:13" ht="30" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:13" ht="30" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="B20" s="24">
         <v>1</v>
       </c>
@@ -3714,7 +3714,7 @@
       <c r="L20" s="27"/>
       <c r="M20" s="28"/>
     </row>
-    <row r="21" spans="2:13" ht="30" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:13" ht="30" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="B21" s="24">
         <v>1</v>
       </c>
@@ -3743,7 +3743,7 @@
       <c r="L21" s="27"/>
       <c r="M21" s="28"/>
     </row>
-    <row r="22" spans="2:13" ht="30" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:13" ht="30" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="B22" s="14">
         <v>1</v>
       </c>
@@ -3769,7 +3769,7 @@
       <c r="L22" s="38"/>
       <c r="M22" s="39"/>
     </row>
-    <row r="23" spans="2:13" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:13" ht="14.4" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="C23" s="6"/>
       <c r="D23" s="47"/>
       <c r="E23" s="48" t="s">
@@ -3786,7 +3786,7 @@
       <c r="L23" s="51"/>
       <c r="M23" s="52"/>
     </row>
-    <row r="24" spans="2:13" ht="30" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:13" ht="30" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="B24" s="24">
         <v>1</v>
       </c>
@@ -3813,7 +3813,7 @@
       <c r="L24" s="27"/>
       <c r="M24" s="28"/>
     </row>
-    <row r="25" spans="2:13" ht="30" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:13" ht="30" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="B25" s="24">
         <v>1</v>
       </c>
@@ -3842,7 +3842,7 @@
       <c r="L25" s="27"/>
       <c r="M25" s="28"/>
     </row>
-    <row r="26" spans="2:13" ht="30" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:13" ht="30" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="B26" s="24">
         <v>1</v>
       </c>
@@ -3871,7 +3871,7 @@
       <c r="L26" s="27"/>
       <c r="M26" s="28"/>
     </row>
-    <row r="27" spans="2:13" ht="30" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:13" ht="30" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="B27" s="24">
         <v>1</v>
       </c>
@@ -3898,7 +3898,7 @@
       <c r="L27" s="27"/>
       <c r="M27" s="28"/>
     </row>
-    <row r="28" spans="2:13" ht="30" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:13" ht="30" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="B28" s="55">
         <v>1</v>
       </c>
@@ -3925,7 +3925,7 @@
       <c r="L28" s="60"/>
       <c r="M28" s="61"/>
     </row>
-    <row r="29" spans="2:13" ht="30" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:13" ht="30" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="C29" s="6" t="str">
         <f>_xlfn.CONCAT($C$28,".1")</f>
         <v>Q11.1</v>
@@ -3943,7 +3943,7 @@
       <c r="L29" s="38"/>
       <c r="M29" s="39"/>
     </row>
-    <row r="30" spans="2:13" ht="30" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:13" ht="30" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="C30" s="6" t="str">
         <f>_xlfn.CONCAT($C$28,".2")</f>
         <v>Q11.2</v>
@@ -3961,7 +3961,7 @@
       <c r="L30" s="38"/>
       <c r="M30" s="39"/>
     </row>
-    <row r="31" spans="2:13" ht="30" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:13" ht="30" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="C31" s="6" t="str">
         <f>_xlfn.CONCAT($C$28,".3")</f>
         <v>Q11.3</v>
@@ -3979,7 +3979,7 @@
       <c r="L31" s="38"/>
       <c r="M31" s="39"/>
     </row>
-    <row r="32" spans="2:13" ht="30" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:13" ht="30" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="C32" s="6" t="str">
         <f>_xlfn.CONCAT($C$28,".4")</f>
         <v>Q11.4</v>
@@ -3997,7 +3997,7 @@
       <c r="L32" s="38"/>
       <c r="M32" s="39"/>
     </row>
-    <row r="33" spans="2:13" ht="30" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:13" ht="30" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="B33" s="24"/>
       <c r="C33" s="53" t="str">
         <f>_xlfn.CONCAT($C$28,".5")</f>
@@ -4020,7 +4020,7 @@
       <c r="L33" s="27"/>
       <c r="M33" s="28"/>
     </row>
-    <row r="34" spans="2:13" ht="45" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:13" ht="45" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="B34" s="24">
         <v>1</v>
       </c>
@@ -4047,7 +4047,7 @@
       <c r="L34" s="27"/>
       <c r="M34" s="28"/>
     </row>
-    <row r="35" spans="2:13" ht="30" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:13" ht="30" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="B35" s="96">
         <v>1</v>
       </c>
@@ -4072,7 +4072,7 @@
       <c r="L35" s="38"/>
       <c r="M35" s="89"/>
     </row>
-    <row r="36" spans="2:13" ht="15.75" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:13" ht="15.75" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="C36" s="6"/>
       <c r="D36" s="40" t="s">
         <v>66</v>
@@ -4089,7 +4089,7 @@
       <c r="L36" s="45"/>
       <c r="M36" s="46"/>
     </row>
-    <row r="37" spans="2:13" ht="15.75" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:13" ht="15.75" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="C37" s="6"/>
       <c r="D37" s="47"/>
       <c r="E37" s="48" t="s">
@@ -4106,7 +4106,7 @@
       <c r="L37" s="51"/>
       <c r="M37" s="52"/>
     </row>
-    <row r="38" spans="2:13" ht="30" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:13" ht="30" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="B38" s="24">
         <v>1</v>
       </c>
@@ -4135,7 +4135,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="39" spans="2:13" ht="30" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="2:13" ht="30" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="B39" s="24">
         <v>1</v>
       </c>
@@ -4164,7 +4164,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="40" spans="2:13" ht="30" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="2:13" ht="30" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="B40" s="24">
         <v>1</v>
       </c>
@@ -4193,7 +4193,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="41" spans="2:13" ht="30" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="2:13" ht="30" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="B41" s="24">
         <v>1</v>
       </c>
@@ -4222,7 +4222,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="42" spans="2:13" ht="45" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="2:13" ht="45" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="B42" s="24">
         <v>1</v>
       </c>
@@ -4251,7 +4251,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="43" spans="2:13" ht="30" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="2:13" ht="30" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="B43" s="24">
         <v>1</v>
       </c>
@@ -4282,7 +4282,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="44" spans="2:13" ht="30" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="2:13" ht="30" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="B44" s="24">
         <v>1</v>
       </c>
@@ -4311,7 +4311,7 @@
       <c r="L44" s="27"/>
       <c r="M44" s="28"/>
     </row>
-    <row r="45" spans="2:13" ht="30" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="2:13" ht="30" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="B45" s="24">
         <v>1</v>
       </c>
@@ -4338,7 +4338,7 @@
       <c r="L45" s="64"/>
       <c r="M45" s="65"/>
     </row>
-    <row r="46" spans="2:13" ht="30" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="2:13" ht="30" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="B46" s="29">
         <v>1</v>
       </c>
@@ -4367,7 +4367,7 @@
       <c r="L46" s="34"/>
       <c r="M46" s="35"/>
     </row>
-    <row r="47" spans="2:13" ht="30" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="2:13" ht="30" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="B47" s="29">
         <v>1</v>
       </c>
@@ -4398,7 +4398,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="48" spans="2:13" ht="30" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="2:13" ht="30" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="B48" s="29">
         <v>1</v>
       </c>
@@ -4425,7 +4425,7 @@
       <c r="L48" s="66"/>
       <c r="M48" s="35"/>
     </row>
-    <row r="49" spans="2:13" ht="30" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="2:13" ht="30" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="B49" s="29">
         <v>1</v>
       </c>
@@ -4454,7 +4454,7 @@
       <c r="L49" s="27"/>
       <c r="M49" s="35"/>
     </row>
-    <row r="50" spans="2:13" ht="45" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="2:13" ht="45" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="B50" s="14">
         <v>1</v>
       </c>
@@ -4484,7 +4484,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="51" spans="2:13" ht="15.75" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="2:13" ht="15.75" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="C51" s="6"/>
       <c r="D51" s="40" t="s">
         <v>82</v>
@@ -4501,7 +4501,7 @@
       <c r="L51" s="45"/>
       <c r="M51" s="46"/>
     </row>
-    <row r="52" spans="2:13" ht="15.75" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="2:13" ht="15.75" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="C52" s="6"/>
       <c r="D52" s="47"/>
       <c r="E52" s="48" t="s">
@@ -4518,7 +4518,7 @@
       <c r="L52" s="51"/>
       <c r="M52" s="52"/>
     </row>
-    <row r="53" spans="2:13" ht="51" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="2:13" ht="55.2" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="B53" s="24">
         <v>1</v>
       </c>
@@ -4547,7 +4547,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="54" spans="2:13" ht="30" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="2:13" ht="30" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="B54" s="24"/>
       <c r="C54" s="110" t="str">
         <f>_xlfn.CONCAT($C$53,".1")</f>
@@ -4568,7 +4568,7 @@
       <c r="L54" s="38"/>
       <c r="M54" s="89"/>
     </row>
-    <row r="55" spans="2:13" ht="30" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="2:13" ht="30" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="B55" s="24"/>
       <c r="C55" s="110" t="str">
         <f>_xlfn.CONCAT($C$53,".2")</f>
@@ -4589,7 +4589,7 @@
       <c r="L55" s="38"/>
       <c r="M55" s="89"/>
     </row>
-    <row r="56" spans="2:13" ht="30" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="2:13" ht="30" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="B56" s="24"/>
       <c r="C56" s="107" t="str">
         <f>_xlfn.CONCAT($C$53,".3")</f>
@@ -4610,7 +4610,7 @@
       <c r="L56" s="38"/>
       <c r="M56" s="89"/>
     </row>
-    <row r="57" spans="2:13" ht="30" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="2:13" ht="30" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="B57" s="24"/>
       <c r="C57" s="107" t="str">
         <f>_xlfn.CONCAT($C$53,".4")</f>
@@ -4631,7 +4631,7 @@
       <c r="L57" s="38"/>
       <c r="M57" s="89"/>
     </row>
-    <row r="58" spans="2:13" ht="30" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="2:13" ht="30" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="B58" s="24"/>
       <c r="C58" s="107" t="str">
         <f>_xlfn.CONCAT($C$53,".5")</f>
@@ -4652,7 +4652,7 @@
       <c r="L58" s="38"/>
       <c r="M58" s="89"/>
     </row>
-    <row r="59" spans="2:13" ht="30" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="2:13" ht="30" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="B59" s="24"/>
       <c r="C59" s="94" t="str">
         <f>_xlfn.CONCAT($C$53,".6")</f>
@@ -4673,7 +4673,7 @@
       <c r="L59" s="64"/>
       <c r="M59" s="65"/>
     </row>
-    <row r="60" spans="2:13" ht="45" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="2:13" ht="45" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="B60" s="24">
         <v>1</v>
       </c>
@@ -4702,7 +4702,7 @@
       <c r="L60" s="27"/>
       <c r="M60" s="28"/>
     </row>
-    <row r="61" spans="2:13" ht="45" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="2:13" ht="45" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="B61" s="14">
         <v>1</v>
       </c>
@@ -4716,7 +4716,7 @@
       <c r="G61" s="14" t="s">
         <v>33</v>
       </c>
-      <c r="H61" s="125" t="s">
+      <c r="H61" s="115" t="s">
         <v>199</v>
       </c>
       <c r="I61" s="37" t="s">
@@ -4728,7 +4728,7 @@
       <c r="L61" s="38"/>
       <c r="M61" s="39"/>
     </row>
-    <row r="62" spans="2:13" ht="15.75" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="2:13" ht="15.75" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="C62" s="6"/>
       <c r="D62" s="47"/>
       <c r="E62" s="48" t="s">
@@ -4745,7 +4745,7 @@
       <c r="L62" s="51"/>
       <c r="M62" s="52"/>
     </row>
-    <row r="63" spans="2:13" ht="30" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="2:13" ht="28.8" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="B63" s="24">
         <v>1</v>
       </c>
@@ -4774,7 +4774,7 @@
       <c r="L63" s="27"/>
       <c r="M63" s="28"/>
     </row>
-    <row r="64" spans="2:13" ht="45" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="2:13" ht="45" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="B64" s="24">
         <v>1</v>
       </c>
@@ -4803,7 +4803,7 @@
       <c r="L64" s="27"/>
       <c r="M64" s="28"/>
     </row>
-    <row r="65" spans="2:13" ht="30" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="2:13" ht="30" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="B65" s="24">
         <v>1</v>
       </c>
@@ -4830,7 +4830,7 @@
       <c r="L65" s="27"/>
       <c r="M65" s="28"/>
     </row>
-    <row r="66" spans="2:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="2:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B66" s="17"/>
       <c r="C66" s="18" t="s">
         <v>91</v>
@@ -4848,7 +4848,7 @@
       <c r="L66" s="22"/>
       <c r="M66" s="23"/>
     </row>
-    <row r="67" spans="2:13" ht="75" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="67" spans="2:13" ht="75" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="B67" s="14">
         <v>1</v>
       </c>
@@ -4876,7 +4876,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="68" spans="2:13" ht="39.75" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="68" spans="2:13" ht="39.75" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="C68" s="6" t="str">
         <f>_xlfn.CONCAT($C$67,".1")</f>
         <v>Q33.1</v>
@@ -4896,7 +4896,7 @@
       <c r="L68" s="38"/>
       <c r="M68" s="39"/>
     </row>
-    <row r="69" spans="2:13" ht="30" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="69" spans="2:13" ht="30" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="C69" s="6" t="str">
         <f>_xlfn.CONCAT($C$67,".2")</f>
         <v>Q33.2</v>
@@ -4916,7 +4916,7 @@
       <c r="L69" s="38"/>
       <c r="M69" s="39"/>
     </row>
-    <row r="70" spans="2:13" ht="30" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="70" spans="2:13" ht="30" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="C70" s="6" t="str">
         <f>_xlfn.CONCAT($C$67,".3")</f>
         <v>Q33.3</v>
@@ -4936,7 +4936,7 @@
       <c r="L70" s="38"/>
       <c r="M70" s="39"/>
     </row>
-    <row r="71" spans="2:13" ht="30" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="71" spans="2:13" ht="30" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="C71" s="93" t="str">
         <f>_xlfn.CONCAT($C$67,".4")</f>
         <v>Q33.4</v>
@@ -4956,7 +4956,7 @@
       <c r="L71" s="38"/>
       <c r="M71" s="39"/>
     </row>
-    <row r="72" spans="2:13" ht="48" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="72" spans="2:13" ht="48" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="C72" s="6" t="str">
         <f>_xlfn.CONCAT($C$67,".5")</f>
         <v>Q33.5</v>
@@ -4976,7 +4976,7 @@
       <c r="L72" s="38"/>
       <c r="M72" s="39"/>
     </row>
-    <row r="73" spans="2:13" ht="30" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="73" spans="2:13" ht="30" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="C73" s="6" t="str">
         <f>_xlfn.CONCAT($C$67,".6")</f>
         <v>Q33.6</v>
@@ -4996,7 +4996,7 @@
       <c r="L73" s="38"/>
       <c r="M73" s="39"/>
     </row>
-    <row r="74" spans="2:13" ht="30" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="74" spans="2:13" ht="30" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="C74" s="6" t="str">
         <f>_xlfn.CONCAT($C$67,".7")</f>
         <v>Q33.7</v>
@@ -5016,7 +5016,7 @@
       <c r="L74" s="38"/>
       <c r="M74" s="39"/>
     </row>
-    <row r="75" spans="2:13" ht="30" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="75" spans="2:13" ht="30" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="B75" s="24"/>
       <c r="C75" s="53" t="str">
         <f>_xlfn.CONCAT($C$67,".8")</f>
@@ -5041,7 +5041,7 @@
       <c r="L75" s="27"/>
       <c r="M75" s="28"/>
     </row>
-    <row r="76" spans="2:13" ht="45" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="76" spans="2:13" ht="45" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="B76" s="14">
         <v>1</v>
       </c>
@@ -5067,7 +5067,7 @@
       <c r="L76" s="15"/>
       <c r="M76" s="69"/>
     </row>
-    <row r="77" spans="2:13" ht="45" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="77" spans="2:13" ht="45" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="C77" s="6" t="str">
         <f>_xlfn.CONCAT($C$76,".1")</f>
         <v>Q34.1</v>
@@ -5081,13 +5081,13 @@
       <c r="H77" s="36" t="s">
         <v>193</v>
       </c>
-      <c r="I77" s="117" t="s">
+      <c r="I77" s="119" t="s">
         <v>149</v>
       </c>
       <c r="L77" s="38"/>
       <c r="M77" s="39"/>
     </row>
-    <row r="78" spans="2:13" ht="45" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="78" spans="2:13" ht="45" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="C78" s="6" t="str">
         <f>_xlfn.CONCAT($C$76,".2")</f>
         <v>Q34.2</v>
@@ -5101,11 +5101,11 @@
       <c r="H78" s="36" t="s">
         <v>193</v>
       </c>
-      <c r="I78" s="118"/>
+      <c r="I78" s="120"/>
       <c r="L78" s="38"/>
       <c r="M78" s="39"/>
     </row>
-    <row r="79" spans="2:13" ht="45" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="79" spans="2:13" ht="45" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="C79" s="6" t="str">
         <f>_xlfn.CONCAT($C$76,".3")</f>
         <v>Q34.3</v>
@@ -5119,11 +5119,11 @@
       <c r="H79" s="36" t="s">
         <v>193</v>
       </c>
-      <c r="I79" s="118"/>
+      <c r="I79" s="120"/>
       <c r="L79" s="38"/>
       <c r="M79" s="39"/>
     </row>
-    <row r="80" spans="2:13" ht="30" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="80" spans="2:13" ht="30" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="B80" s="24"/>
       <c r="C80" s="53" t="str">
         <f>_xlfn.CONCAT($C$76,".4")</f>
@@ -5146,7 +5146,7 @@
       <c r="L80" s="27"/>
       <c r="M80" s="28"/>
     </row>
-    <row r="81" spans="2:14" ht="30" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="81" spans="2:14" ht="30" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="B81" s="24">
         <v>1</v>
       </c>
@@ -5175,7 +5175,7 @@
       <c r="L81" s="27"/>
       <c r="M81" s="28"/>
     </row>
-    <row r="82" spans="2:14" ht="30" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="82" spans="2:14" ht="30" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="B82" s="24">
         <v>1</v>
       </c>
@@ -5202,7 +5202,7 @@
       <c r="L82" s="60"/>
       <c r="M82" s="61"/>
     </row>
-    <row r="83" spans="2:14" ht="30" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="83" spans="2:14" ht="30" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="C83" s="6" t="str">
         <f>_xlfn.CONCAT($C$82,".1")</f>
         <v>Q36.1</v>
@@ -5224,7 +5224,7 @@
       </c>
       <c r="M83" s="39"/>
     </row>
-    <row r="84" spans="2:14" ht="30" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="84" spans="2:14" ht="30" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="C84" s="6" t="str">
         <f>_xlfn.CONCAT($C$82,".2")</f>
         <v>Q36.2</v>
@@ -5246,7 +5246,7 @@
       </c>
       <c r="M84" s="39"/>
     </row>
-    <row r="85" spans="2:14" ht="30" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="85" spans="2:14" ht="30" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="C85" s="6" t="str">
         <f>_xlfn.CONCAT($C$82,".3")</f>
         <v>Q36.3</v>
@@ -5268,7 +5268,7 @@
       </c>
       <c r="M85" s="39"/>
     </row>
-    <row r="86" spans="2:14" ht="45" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="86" spans="2:14" ht="45" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="C86" s="93" t="str">
         <f>_xlfn.CONCAT($C$82,".4")</f>
         <v>Q36.4</v>
@@ -5297,7 +5297,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="87" spans="2:14" ht="45" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="87" spans="2:14" ht="45" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="C87" s="6" t="str">
         <f>_xlfn.CONCAT($C$82,".5")</f>
         <v>Q36.5</v>
@@ -5326,7 +5326,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="88" spans="2:14" ht="30" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="88" spans="2:14" ht="30" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="B88" s="24"/>
       <c r="C88" s="53" t="str">
         <f>_xlfn.CONCAT($C$82,".6")</f>
@@ -5351,7 +5351,7 @@
       <c r="L88" s="27"/>
       <c r="M88" s="28"/>
     </row>
-    <row r="89" spans="2:14" ht="60" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="89" spans="2:14" ht="60" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="B89" s="24">
         <v>1</v>
       </c>
@@ -5380,7 +5380,7 @@
       <c r="L89" s="27"/>
       <c r="M89" s="28"/>
     </row>
-    <row r="90" spans="2:14" ht="45" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="90" spans="2:14" ht="45" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="B90" s="24">
         <v>1</v>
       </c>
@@ -5411,7 +5411,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="91" spans="2:14" ht="30" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="91" spans="2:14" ht="30" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="B91" s="24">
         <v>1</v>
       </c>
@@ -5440,7 +5440,7 @@
       <c r="L91" s="27"/>
       <c r="M91" s="28"/>
     </row>
-    <row r="92" spans="2:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="92" spans="2:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B92" s="17"/>
       <c r="C92" s="18" t="s">
         <v>127</v>
@@ -5458,7 +5458,7 @@
       <c r="L92" s="22"/>
       <c r="M92" s="23"/>
     </row>
-    <row r="93" spans="2:14" ht="45" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="93" spans="2:14" ht="45" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="B93">
         <v>1</v>
       </c>
@@ -5485,7 +5485,7 @@
       <c r="L93" s="27"/>
       <c r="M93" s="72"/>
     </row>
-    <row r="94" spans="2:14" ht="45" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="94" spans="2:14" ht="45" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="B94">
         <v>1</v>
       </c>
@@ -5512,7 +5512,7 @@
       <c r="L94" s="27"/>
       <c r="M94" s="72"/>
     </row>
-    <row r="95" spans="2:14" ht="45" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="95" spans="2:14" ht="45" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="B95">
         <v>1</v>
       </c>
@@ -5539,7 +5539,7 @@
       <c r="L95" s="27"/>
       <c r="M95" s="72"/>
     </row>
-    <row r="96" spans="2:14" ht="45" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="96" spans="2:14" ht="45" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="B96">
         <v>1</v>
       </c>
@@ -5566,7 +5566,7 @@
       <c r="L96" s="27"/>
       <c r="M96" s="72"/>
     </row>
-    <row r="97" spans="2:13" ht="45" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="97" spans="2:13" ht="45" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="B97">
         <v>1</v>
       </c>
@@ -5593,3647 +5593,3647 @@
       <c r="L97" s="27"/>
       <c r="M97" s="72"/>
     </row>
-    <row r="98" spans="2:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="98" spans="2:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C98" s="6"/>
       <c r="F98" s="7"/>
     </row>
-    <row r="99" spans="2:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="99" spans="2:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C99" s="6"/>
       <c r="F99" s="7"/>
     </row>
-    <row r="100" spans="2:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="100" spans="2:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C100" s="6"/>
       <c r="F100" s="7"/>
     </row>
-    <row r="101" spans="2:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="101" spans="2:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C101" s="6"/>
       <c r="F101" s="7"/>
     </row>
-    <row r="102" spans="2:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="102" spans="2:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C102" s="6"/>
       <c r="F102" s="7"/>
     </row>
-    <row r="103" spans="2:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="103" spans="2:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C103" s="6"/>
       <c r="F103" s="7"/>
     </row>
-    <row r="104" spans="2:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="104" spans="2:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C104" s="6"/>
       <c r="F104" s="7"/>
     </row>
-    <row r="105" spans="2:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="105" spans="2:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C105" s="6"/>
       <c r="F105" s="7"/>
     </row>
-    <row r="106" spans="2:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="106" spans="2:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C106" s="6"/>
       <c r="F106" s="7"/>
     </row>
-    <row r="107" spans="2:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="107" spans="2:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C107" s="6"/>
       <c r="F107" s="7"/>
     </row>
-    <row r="108" spans="2:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="108" spans="2:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C108" s="6"/>
       <c r="F108" s="7"/>
     </row>
-    <row r="109" spans="2:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="109" spans="2:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C109" s="6"/>
       <c r="F109" s="7"/>
     </row>
-    <row r="110" spans="2:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="110" spans="2:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C110" s="6"/>
       <c r="F110" s="7"/>
     </row>
-    <row r="111" spans="2:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="111" spans="2:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C111" s="6"/>
       <c r="F111" s="7"/>
     </row>
-    <row r="112" spans="2:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="112" spans="2:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C112" s="6"/>
       <c r="F112" s="7"/>
     </row>
-    <row r="113" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="113" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C113" s="6"/>
       <c r="F113" s="7"/>
     </row>
-    <row r="114" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="114" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C114" s="6"/>
       <c r="F114" s="7"/>
     </row>
-    <row r="115" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="115" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C115" s="6"/>
       <c r="F115" s="7"/>
     </row>
-    <row r="116" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="116" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C116" s="6"/>
       <c r="F116" s="7"/>
     </row>
-    <row r="117" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="117" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C117" s="6"/>
       <c r="F117" s="7"/>
     </row>
-    <row r="118" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="118" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C118" s="6"/>
       <c r="F118" s="7"/>
     </row>
-    <row r="119" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="119" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C119" s="6"/>
       <c r="F119" s="7"/>
     </row>
-    <row r="120" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="120" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C120" s="6"/>
       <c r="F120" s="7"/>
     </row>
-    <row r="121" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="121" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C121" s="6"/>
       <c r="F121" s="7"/>
     </row>
-    <row r="122" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="122" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C122" s="6"/>
       <c r="F122" s="7"/>
     </row>
-    <row r="123" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="123" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C123" s="6"/>
       <c r="F123" s="7"/>
     </row>
-    <row r="124" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="124" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C124" s="6"/>
       <c r="F124" s="7"/>
     </row>
-    <row r="125" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="125" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C125" s="6"/>
       <c r="F125" s="7"/>
     </row>
-    <row r="126" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="126" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C126" s="6"/>
       <c r="F126" s="7"/>
     </row>
-    <row r="127" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="127" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C127" s="6"/>
       <c r="F127" s="7"/>
     </row>
-    <row r="128" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="128" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C128" s="6"/>
       <c r="F128" s="7"/>
     </row>
-    <row r="129" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="129" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C129" s="6"/>
       <c r="F129" s="7"/>
     </row>
-    <row r="130" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="130" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C130" s="6"/>
       <c r="F130" s="7"/>
     </row>
-    <row r="131" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="131" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C131" s="6"/>
       <c r="F131" s="7"/>
     </row>
-    <row r="132" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="132" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C132" s="6"/>
       <c r="F132" s="7"/>
     </row>
-    <row r="133" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="133" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C133" s="6"/>
       <c r="F133" s="7"/>
     </row>
-    <row r="134" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="134" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C134" s="6"/>
       <c r="F134" s="7"/>
     </row>
-    <row r="135" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="135" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C135" s="6"/>
       <c r="F135" s="7"/>
     </row>
-    <row r="136" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="136" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C136" s="6"/>
       <c r="F136" s="7"/>
     </row>
-    <row r="137" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="137" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C137" s="6"/>
       <c r="F137" s="7"/>
     </row>
-    <row r="138" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="138" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C138" s="6"/>
       <c r="F138" s="7"/>
     </row>
-    <row r="139" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="139" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C139" s="6"/>
       <c r="F139" s="7"/>
     </row>
-    <row r="140" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="140" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C140" s="6"/>
       <c r="F140" s="7"/>
     </row>
-    <row r="141" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="141" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C141" s="6"/>
       <c r="F141" s="7"/>
     </row>
-    <row r="142" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="142" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C142" s="6"/>
       <c r="F142" s="7"/>
     </row>
-    <row r="143" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="143" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C143" s="6"/>
       <c r="F143" s="7"/>
     </row>
-    <row r="144" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="144" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C144" s="6"/>
       <c r="F144" s="7"/>
     </row>
-    <row r="145" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="145" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C145" s="6"/>
       <c r="F145" s="7"/>
     </row>
-    <row r="146" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="146" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C146" s="6"/>
       <c r="F146" s="7"/>
     </row>
-    <row r="147" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="147" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C147" s="6"/>
       <c r="F147" s="7"/>
     </row>
-    <row r="148" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="148" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C148" s="6"/>
       <c r="F148" s="7"/>
     </row>
-    <row r="149" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="149" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C149" s="6"/>
       <c r="F149" s="7"/>
     </row>
-    <row r="150" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="150" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C150" s="6"/>
       <c r="F150" s="7"/>
     </row>
-    <row r="151" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="151" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C151" s="6"/>
       <c r="F151" s="7"/>
     </row>
-    <row r="152" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="152" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C152" s="6"/>
       <c r="F152" s="7"/>
     </row>
-    <row r="153" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="153" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C153" s="6"/>
       <c r="F153" s="7"/>
     </row>
-    <row r="154" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="154" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C154" s="6"/>
       <c r="F154" s="7"/>
     </row>
-    <row r="155" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="155" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C155" s="6"/>
       <c r="F155" s="7"/>
     </row>
-    <row r="156" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="156" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C156" s="6"/>
       <c r="F156" s="7"/>
     </row>
-    <row r="157" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="157" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C157" s="6"/>
       <c r="F157" s="7"/>
     </row>
-    <row r="158" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="158" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C158" s="6"/>
       <c r="F158" s="7"/>
     </row>
-    <row r="159" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="159" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C159" s="6"/>
       <c r="F159" s="7"/>
     </row>
-    <row r="160" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="160" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C160" s="6"/>
       <c r="F160" s="7"/>
     </row>
-    <row r="161" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="161" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C161" s="6"/>
       <c r="F161" s="7"/>
     </row>
-    <row r="162" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="162" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C162" s="6"/>
       <c r="F162" s="7"/>
     </row>
-    <row r="163" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="163" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C163" s="6"/>
       <c r="F163" s="7"/>
     </row>
-    <row r="164" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="164" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C164" s="6"/>
       <c r="F164" s="7"/>
     </row>
-    <row r="165" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="165" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C165" s="6"/>
       <c r="F165" s="7"/>
     </row>
-    <row r="166" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="166" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C166" s="6"/>
       <c r="F166" s="7"/>
     </row>
-    <row r="167" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="167" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C167" s="6"/>
       <c r="F167" s="7"/>
     </row>
-    <row r="168" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="168" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C168" s="6"/>
       <c r="F168" s="7"/>
     </row>
-    <row r="169" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="169" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C169" s="6"/>
       <c r="F169" s="7"/>
     </row>
-    <row r="170" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="170" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C170" s="6"/>
       <c r="F170" s="7"/>
     </row>
-    <row r="171" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="171" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C171" s="6"/>
       <c r="F171" s="7"/>
     </row>
-    <row r="172" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="172" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C172" s="6"/>
       <c r="F172" s="7"/>
     </row>
-    <row r="173" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="173" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C173" s="6"/>
       <c r="F173" s="7"/>
     </row>
-    <row r="174" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="174" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C174" s="6"/>
       <c r="F174" s="7"/>
     </row>
-    <row r="175" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="175" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C175" s="6"/>
       <c r="F175" s="7"/>
     </row>
-    <row r="176" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="176" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C176" s="6"/>
       <c r="F176" s="7"/>
     </row>
-    <row r="177" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="177" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C177" s="6"/>
       <c r="F177" s="7"/>
     </row>
-    <row r="178" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="178" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C178" s="6"/>
       <c r="F178" s="7"/>
     </row>
-    <row r="179" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="179" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C179" s="6"/>
       <c r="F179" s="7"/>
     </row>
-    <row r="180" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="180" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C180" s="6"/>
       <c r="F180" s="7"/>
     </row>
-    <row r="181" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="181" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C181" s="6"/>
       <c r="F181" s="7"/>
     </row>
-    <row r="182" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="182" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C182" s="6"/>
       <c r="F182" s="7"/>
     </row>
-    <row r="183" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="183" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C183" s="6"/>
       <c r="F183" s="7"/>
     </row>
-    <row r="184" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="184" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C184" s="6"/>
       <c r="F184" s="7"/>
     </row>
-    <row r="185" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="185" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C185" s="6"/>
       <c r="F185" s="7"/>
     </row>
-    <row r="186" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="186" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C186" s="6"/>
       <c r="F186" s="7"/>
     </row>
-    <row r="187" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="187" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C187" s="6"/>
       <c r="F187" s="7"/>
     </row>
-    <row r="188" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="188" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C188" s="6"/>
       <c r="F188" s="7"/>
     </row>
-    <row r="189" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="189" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C189" s="6"/>
       <c r="F189" s="7"/>
     </row>
-    <row r="190" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="190" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C190" s="6"/>
       <c r="F190" s="7"/>
     </row>
-    <row r="191" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="191" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C191" s="6"/>
       <c r="F191" s="7"/>
     </row>
-    <row r="192" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="192" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C192" s="6"/>
       <c r="F192" s="7"/>
     </row>
-    <row r="193" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="193" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C193" s="6"/>
       <c r="F193" s="7"/>
     </row>
-    <row r="194" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="194" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C194" s="6"/>
       <c r="F194" s="7"/>
     </row>
-    <row r="195" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="195" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C195" s="6"/>
       <c r="F195" s="7"/>
     </row>
-    <row r="196" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="196" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C196" s="6"/>
       <c r="F196" s="7"/>
     </row>
-    <row r="197" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="197" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C197" s="6"/>
       <c r="F197" s="7"/>
     </row>
-    <row r="198" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="198" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C198" s="6"/>
       <c r="F198" s="7"/>
     </row>
-    <row r="199" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="199" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C199" s="6"/>
       <c r="F199" s="7"/>
     </row>
-    <row r="200" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="200" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C200" s="6"/>
       <c r="F200" s="7"/>
     </row>
-    <row r="201" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="201" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C201" s="6"/>
       <c r="F201" s="7"/>
     </row>
-    <row r="202" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="202" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C202" s="6"/>
       <c r="F202" s="7"/>
     </row>
-    <row r="203" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="203" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C203" s="6"/>
       <c r="F203" s="7"/>
     </row>
-    <row r="204" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="204" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C204" s="6"/>
       <c r="F204" s="7"/>
     </row>
-    <row r="205" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="205" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C205" s="6"/>
       <c r="F205" s="7"/>
     </row>
-    <row r="206" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="206" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C206" s="6"/>
       <c r="F206" s="7"/>
     </row>
-    <row r="207" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="207" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C207" s="6"/>
       <c r="F207" s="7"/>
     </row>
-    <row r="208" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="208" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C208" s="6"/>
       <c r="F208" s="7"/>
     </row>
-    <row r="209" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="209" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C209" s="6"/>
       <c r="F209" s="7"/>
     </row>
-    <row r="210" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="210" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C210" s="6"/>
       <c r="F210" s="7"/>
     </row>
-    <row r="211" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="211" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C211" s="6"/>
       <c r="F211" s="7"/>
     </row>
-    <row r="212" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="212" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C212" s="6"/>
       <c r="F212" s="7"/>
     </row>
-    <row r="213" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="213" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C213" s="6"/>
       <c r="F213" s="7"/>
     </row>
-    <row r="214" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="214" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C214" s="6"/>
       <c r="F214" s="7"/>
     </row>
-    <row r="215" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="215" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C215" s="6"/>
       <c r="F215" s="7"/>
     </row>
-    <row r="216" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="216" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C216" s="6"/>
       <c r="F216" s="7"/>
     </row>
-    <row r="217" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="217" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C217" s="6"/>
       <c r="F217" s="7"/>
     </row>
-    <row r="218" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="218" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C218" s="6"/>
       <c r="F218" s="7"/>
     </row>
-    <row r="219" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="219" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C219" s="6"/>
       <c r="F219" s="7"/>
     </row>
-    <row r="220" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="220" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C220" s="6"/>
       <c r="F220" s="7"/>
     </row>
-    <row r="221" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="221" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C221" s="6"/>
       <c r="F221" s="7"/>
     </row>
-    <row r="222" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="222" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C222" s="6"/>
       <c r="F222" s="7"/>
     </row>
-    <row r="223" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="223" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C223" s="6"/>
       <c r="F223" s="7"/>
     </row>
-    <row r="224" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="224" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C224" s="6"/>
       <c r="F224" s="7"/>
     </row>
-    <row r="225" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="225" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C225" s="6"/>
       <c r="F225" s="7"/>
     </row>
-    <row r="226" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="226" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C226" s="6"/>
       <c r="F226" s="7"/>
     </row>
-    <row r="227" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="227" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C227" s="6"/>
       <c r="F227" s="7"/>
     </row>
-    <row r="228" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="228" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C228" s="6"/>
       <c r="F228" s="7"/>
     </row>
-    <row r="229" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="229" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C229" s="6"/>
       <c r="F229" s="7"/>
     </row>
-    <row r="230" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="230" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C230" s="6"/>
       <c r="F230" s="7"/>
     </row>
-    <row r="231" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="231" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C231" s="6"/>
       <c r="F231" s="7"/>
     </row>
-    <row r="232" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="232" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C232" s="6"/>
       <c r="F232" s="7"/>
     </row>
-    <row r="233" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="233" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C233" s="6"/>
       <c r="F233" s="7"/>
     </row>
-    <row r="234" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="234" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C234" s="6"/>
       <c r="F234" s="7"/>
     </row>
-    <row r="235" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="235" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C235" s="6"/>
       <c r="F235" s="7"/>
     </row>
-    <row r="236" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="236" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C236" s="6"/>
       <c r="F236" s="7"/>
     </row>
-    <row r="237" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="237" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C237" s="6"/>
       <c r="F237" s="7"/>
     </row>
-    <row r="238" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="238" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C238" s="6"/>
       <c r="F238" s="7"/>
     </row>
-    <row r="239" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="239" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C239" s="6"/>
       <c r="F239" s="7"/>
     </row>
-    <row r="240" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="240" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C240" s="6"/>
       <c r="F240" s="7"/>
     </row>
-    <row r="241" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="241" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C241" s="6"/>
       <c r="F241" s="7"/>
     </row>
-    <row r="242" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="242" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C242" s="6"/>
       <c r="F242" s="7"/>
     </row>
-    <row r="243" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="243" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C243" s="6"/>
       <c r="F243" s="7"/>
     </row>
-    <row r="244" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="244" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C244" s="6"/>
       <c r="F244" s="7"/>
     </row>
-    <row r="245" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="245" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C245" s="6"/>
       <c r="F245" s="7"/>
     </row>
-    <row r="246" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="246" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C246" s="6"/>
       <c r="F246" s="7"/>
     </row>
-    <row r="247" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="247" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C247" s="6"/>
       <c r="F247" s="7"/>
     </row>
-    <row r="248" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="248" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C248" s="6"/>
       <c r="F248" s="7"/>
     </row>
-    <row r="249" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="249" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C249" s="6"/>
       <c r="F249" s="7"/>
     </row>
-    <row r="250" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="250" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C250" s="6"/>
       <c r="F250" s="7"/>
     </row>
-    <row r="251" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="251" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C251" s="6"/>
       <c r="F251" s="7"/>
     </row>
-    <row r="252" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="252" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C252" s="6"/>
       <c r="F252" s="7"/>
     </row>
-    <row r="253" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="253" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C253" s="6"/>
       <c r="F253" s="7"/>
     </row>
-    <row r="254" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="254" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C254" s="6"/>
       <c r="F254" s="7"/>
     </row>
-    <row r="255" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="255" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C255" s="6"/>
       <c r="F255" s="7"/>
     </row>
-    <row r="256" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="256" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C256" s="6"/>
       <c r="F256" s="7"/>
     </row>
-    <row r="257" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="257" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C257" s="6"/>
       <c r="F257" s="7"/>
     </row>
-    <row r="258" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="258" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C258" s="6"/>
       <c r="F258" s="7"/>
     </row>
-    <row r="259" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="259" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C259" s="6"/>
       <c r="F259" s="7"/>
     </row>
-    <row r="260" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="260" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C260" s="6"/>
       <c r="F260" s="7"/>
     </row>
-    <row r="261" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="261" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C261" s="6"/>
       <c r="F261" s="7"/>
     </row>
-    <row r="262" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="262" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C262" s="6"/>
       <c r="F262" s="7"/>
     </row>
-    <row r="263" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="263" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C263" s="6"/>
       <c r="F263" s="7"/>
     </row>
-    <row r="264" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="264" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C264" s="6"/>
       <c r="F264" s="7"/>
     </row>
-    <row r="265" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="265" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C265" s="6"/>
       <c r="F265" s="7"/>
     </row>
-    <row r="266" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="266" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C266" s="6"/>
       <c r="F266" s="7"/>
     </row>
-    <row r="267" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="267" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C267" s="6"/>
       <c r="F267" s="7"/>
     </row>
-    <row r="268" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="268" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C268" s="6"/>
       <c r="F268" s="7"/>
     </row>
-    <row r="269" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="269" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C269" s="6"/>
       <c r="F269" s="7"/>
     </row>
-    <row r="270" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="270" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C270" s="6"/>
       <c r="F270" s="7"/>
     </row>
-    <row r="271" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="271" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C271" s="6"/>
       <c r="F271" s="7"/>
     </row>
-    <row r="272" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="272" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C272" s="6"/>
       <c r="F272" s="7"/>
     </row>
-    <row r="273" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="273" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C273" s="6"/>
       <c r="F273" s="7"/>
     </row>
-    <row r="274" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="274" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C274" s="6"/>
       <c r="F274" s="7"/>
     </row>
-    <row r="275" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="275" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C275" s="6"/>
       <c r="F275" s="7"/>
     </row>
-    <row r="276" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="276" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C276" s="6"/>
       <c r="F276" s="7"/>
     </row>
-    <row r="277" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="277" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C277" s="6"/>
       <c r="F277" s="7"/>
     </row>
-    <row r="278" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="278" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C278" s="6"/>
       <c r="F278" s="7"/>
     </row>
-    <row r="279" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="279" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C279" s="6"/>
       <c r="F279" s="7"/>
     </row>
-    <row r="280" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="280" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C280" s="6"/>
       <c r="F280" s="7"/>
     </row>
-    <row r="281" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="281" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C281" s="6"/>
       <c r="F281" s="7"/>
     </row>
-    <row r="282" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="282" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C282" s="6"/>
       <c r="F282" s="7"/>
     </row>
-    <row r="283" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="283" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C283" s="6"/>
       <c r="F283" s="7"/>
     </row>
-    <row r="284" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="284" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C284" s="6"/>
       <c r="F284" s="7"/>
     </row>
-    <row r="285" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="285" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C285" s="6"/>
       <c r="F285" s="7"/>
     </row>
-    <row r="286" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="286" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C286" s="6"/>
       <c r="F286" s="7"/>
     </row>
-    <row r="287" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="287" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C287" s="6"/>
       <c r="F287" s="7"/>
     </row>
-    <row r="288" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="288" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C288" s="6"/>
       <c r="F288" s="7"/>
     </row>
-    <row r="289" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="289" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C289" s="6"/>
       <c r="F289" s="7"/>
     </row>
-    <row r="290" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="290" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C290" s="6"/>
       <c r="F290" s="7"/>
     </row>
-    <row r="291" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="291" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C291" s="6"/>
       <c r="F291" s="7"/>
     </row>
-    <row r="292" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="292" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C292" s="6"/>
       <c r="F292" s="7"/>
     </row>
-    <row r="293" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="293" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C293" s="6"/>
       <c r="F293" s="7"/>
     </row>
-    <row r="294" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="294" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C294" s="6"/>
       <c r="F294" s="7"/>
     </row>
-    <row r="295" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="295" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C295" s="6"/>
       <c r="F295" s="7"/>
     </row>
-    <row r="296" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="296" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C296" s="6"/>
       <c r="F296" s="7"/>
     </row>
-    <row r="297" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="297" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C297" s="6"/>
       <c r="F297" s="7"/>
     </row>
-    <row r="298" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="298" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C298" s="6"/>
       <c r="F298" s="7"/>
     </row>
-    <row r="299" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="299" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C299" s="6"/>
       <c r="F299" s="7"/>
     </row>
-    <row r="300" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="300" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C300" s="6"/>
       <c r="F300" s="7"/>
     </row>
-    <row r="301" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="301" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C301" s="6"/>
       <c r="F301" s="7"/>
     </row>
-    <row r="302" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="302" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C302" s="6"/>
       <c r="F302" s="7"/>
     </row>
-    <row r="303" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="303" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C303" s="6"/>
       <c r="F303" s="7"/>
     </row>
-    <row r="304" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="304" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C304" s="6"/>
       <c r="F304" s="7"/>
     </row>
-    <row r="305" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="305" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C305" s="6"/>
       <c r="F305" s="7"/>
     </row>
-    <row r="306" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="306" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C306" s="6"/>
       <c r="F306" s="7"/>
     </row>
-    <row r="307" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="307" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C307" s="6"/>
       <c r="F307" s="7"/>
     </row>
-    <row r="308" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="308" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C308" s="6"/>
       <c r="F308" s="7"/>
     </row>
-    <row r="309" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="309" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C309" s="6"/>
       <c r="F309" s="7"/>
     </row>
-    <row r="310" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="310" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C310" s="6"/>
       <c r="F310" s="7"/>
     </row>
-    <row r="311" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="311" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C311" s="6"/>
       <c r="F311" s="7"/>
     </row>
-    <row r="312" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="312" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C312" s="6"/>
       <c r="F312" s="7"/>
     </row>
-    <row r="313" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="313" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C313" s="6"/>
       <c r="F313" s="7"/>
     </row>
-    <row r="314" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="314" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C314" s="6"/>
       <c r="F314" s="7"/>
     </row>
-    <row r="315" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="315" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C315" s="6"/>
       <c r="F315" s="7"/>
     </row>
-    <row r="316" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="316" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C316" s="6"/>
       <c r="F316" s="7"/>
     </row>
-    <row r="317" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="317" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C317" s="6"/>
       <c r="F317" s="7"/>
     </row>
-    <row r="318" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="318" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C318" s="6"/>
       <c r="F318" s="7"/>
     </row>
-    <row r="319" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="319" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C319" s="6"/>
       <c r="F319" s="7"/>
     </row>
-    <row r="320" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="320" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C320" s="6"/>
       <c r="F320" s="7"/>
     </row>
-    <row r="321" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="321" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C321" s="6"/>
       <c r="F321" s="7"/>
     </row>
-    <row r="322" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="322" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C322" s="6"/>
       <c r="F322" s="7"/>
     </row>
-    <row r="323" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="323" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C323" s="6"/>
       <c r="F323" s="7"/>
     </row>
-    <row r="324" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="324" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C324" s="6"/>
       <c r="F324" s="7"/>
     </row>
-    <row r="325" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="325" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C325" s="6"/>
       <c r="F325" s="7"/>
     </row>
-    <row r="326" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="326" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C326" s="6"/>
       <c r="F326" s="7"/>
     </row>
-    <row r="327" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="327" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C327" s="6"/>
       <c r="F327" s="7"/>
     </row>
-    <row r="328" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="328" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C328" s="6"/>
       <c r="F328" s="7"/>
     </row>
-    <row r="329" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="329" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C329" s="6"/>
       <c r="F329" s="7"/>
     </row>
-    <row r="330" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="330" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C330" s="6"/>
       <c r="F330" s="7"/>
     </row>
-    <row r="331" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="331" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C331" s="6"/>
       <c r="F331" s="7"/>
     </row>
-    <row r="332" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="332" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C332" s="6"/>
       <c r="F332" s="7"/>
     </row>
-    <row r="333" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="333" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C333" s="6"/>
       <c r="F333" s="7"/>
     </row>
-    <row r="334" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="334" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C334" s="6"/>
       <c r="F334" s="7"/>
     </row>
-    <row r="335" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="335" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C335" s="6"/>
       <c r="F335" s="7"/>
     </row>
-    <row r="336" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="336" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C336" s="6"/>
       <c r="F336" s="7"/>
     </row>
-    <row r="337" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="337" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C337" s="6"/>
       <c r="F337" s="7"/>
     </row>
-    <row r="338" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="338" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C338" s="6"/>
       <c r="F338" s="7"/>
     </row>
-    <row r="339" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="339" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C339" s="6"/>
       <c r="F339" s="7"/>
     </row>
-    <row r="340" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="340" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C340" s="6"/>
       <c r="F340" s="7"/>
     </row>
-    <row r="341" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="341" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C341" s="6"/>
       <c r="F341" s="7"/>
     </row>
-    <row r="342" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="342" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C342" s="6"/>
       <c r="F342" s="7"/>
     </row>
-    <row r="343" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="343" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C343" s="6"/>
       <c r="F343" s="7"/>
     </row>
-    <row r="344" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="344" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C344" s="6"/>
       <c r="F344" s="7"/>
     </row>
-    <row r="345" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="345" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C345" s="6"/>
       <c r="F345" s="7"/>
     </row>
-    <row r="346" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="346" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C346" s="6"/>
       <c r="F346" s="7"/>
     </row>
-    <row r="347" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="347" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C347" s="6"/>
       <c r="F347" s="7"/>
     </row>
-    <row r="348" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="348" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C348" s="6"/>
       <c r="F348" s="7"/>
     </row>
-    <row r="349" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="349" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C349" s="6"/>
       <c r="F349" s="7"/>
     </row>
-    <row r="350" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="350" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C350" s="6"/>
       <c r="F350" s="7"/>
     </row>
-    <row r="351" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="351" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C351" s="6"/>
       <c r="F351" s="7"/>
     </row>
-    <row r="352" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="352" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C352" s="6"/>
       <c r="F352" s="7"/>
     </row>
-    <row r="353" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="353" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C353" s="6"/>
       <c r="F353" s="7"/>
     </row>
-    <row r="354" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="354" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C354" s="6"/>
       <c r="F354" s="7"/>
     </row>
-    <row r="355" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="355" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C355" s="6"/>
       <c r="F355" s="7"/>
     </row>
-    <row r="356" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="356" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C356" s="6"/>
       <c r="F356" s="7"/>
     </row>
-    <row r="357" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="357" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C357" s="6"/>
       <c r="F357" s="7"/>
     </row>
-    <row r="358" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="358" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C358" s="6"/>
       <c r="F358" s="7"/>
     </row>
-    <row r="359" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="359" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C359" s="6"/>
       <c r="F359" s="7"/>
     </row>
-    <row r="360" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="360" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C360" s="6"/>
       <c r="F360" s="7"/>
     </row>
-    <row r="361" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="361" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C361" s="6"/>
       <c r="F361" s="7"/>
     </row>
-    <row r="362" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="362" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C362" s="6"/>
       <c r="F362" s="7"/>
     </row>
-    <row r="363" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="363" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C363" s="6"/>
       <c r="F363" s="7"/>
     </row>
-    <row r="364" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="364" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C364" s="6"/>
       <c r="F364" s="7"/>
     </row>
-    <row r="365" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="365" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C365" s="6"/>
       <c r="F365" s="7"/>
     </row>
-    <row r="366" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="366" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C366" s="6"/>
       <c r="F366" s="7"/>
     </row>
-    <row r="367" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="367" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C367" s="6"/>
       <c r="F367" s="7"/>
     </row>
-    <row r="368" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="368" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C368" s="6"/>
       <c r="F368" s="7"/>
     </row>
-    <row r="369" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="369" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C369" s="6"/>
       <c r="F369" s="7"/>
     </row>
-    <row r="370" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="370" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C370" s="6"/>
       <c r="F370" s="7"/>
     </row>
-    <row r="371" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="371" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C371" s="6"/>
       <c r="F371" s="7"/>
     </row>
-    <row r="372" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="372" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C372" s="6"/>
       <c r="F372" s="7"/>
     </row>
-    <row r="373" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="373" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C373" s="6"/>
       <c r="F373" s="7"/>
     </row>
-    <row r="374" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="374" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C374" s="6"/>
       <c r="F374" s="7"/>
     </row>
-    <row r="375" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="375" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C375" s="6"/>
       <c r="F375" s="7"/>
     </row>
-    <row r="376" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="376" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C376" s="6"/>
       <c r="F376" s="7"/>
     </row>
-    <row r="377" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="377" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C377" s="6"/>
       <c r="F377" s="7"/>
     </row>
-    <row r="378" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="378" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C378" s="6"/>
       <c r="F378" s="7"/>
     </row>
-    <row r="379" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="379" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C379" s="6"/>
       <c r="F379" s="7"/>
     </row>
-    <row r="380" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="380" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C380" s="6"/>
       <c r="F380" s="7"/>
     </row>
-    <row r="381" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="381" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C381" s="6"/>
       <c r="F381" s="7"/>
     </row>
-    <row r="382" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="382" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C382" s="6"/>
       <c r="F382" s="7"/>
     </row>
-    <row r="383" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="383" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C383" s="6"/>
       <c r="F383" s="7"/>
     </row>
-    <row r="384" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="384" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C384" s="6"/>
       <c r="F384" s="7"/>
     </row>
-    <row r="385" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="385" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C385" s="6"/>
       <c r="F385" s="7"/>
     </row>
-    <row r="386" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="386" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C386" s="6"/>
       <c r="F386" s="7"/>
     </row>
-    <row r="387" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="387" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C387" s="6"/>
       <c r="F387" s="7"/>
     </row>
-    <row r="388" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="388" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C388" s="6"/>
       <c r="F388" s="7"/>
     </row>
-    <row r="389" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="389" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C389" s="6"/>
       <c r="F389" s="7"/>
     </row>
-    <row r="390" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="390" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C390" s="6"/>
       <c r="F390" s="7"/>
     </row>
-    <row r="391" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="391" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C391" s="6"/>
       <c r="F391" s="7"/>
     </row>
-    <row r="392" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="392" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C392" s="6"/>
       <c r="F392" s="7"/>
     </row>
-    <row r="393" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="393" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C393" s="6"/>
       <c r="F393" s="7"/>
     </row>
-    <row r="394" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="394" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C394" s="6"/>
       <c r="F394" s="7"/>
     </row>
-    <row r="395" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="395" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C395" s="6"/>
       <c r="F395" s="7"/>
     </row>
-    <row r="396" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="396" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C396" s="6"/>
       <c r="F396" s="7"/>
     </row>
-    <row r="397" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="397" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C397" s="6"/>
       <c r="F397" s="7"/>
     </row>
-    <row r="398" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="398" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C398" s="6"/>
       <c r="F398" s="7"/>
     </row>
-    <row r="399" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="399" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C399" s="6"/>
       <c r="F399" s="7"/>
     </row>
-    <row r="400" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="400" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C400" s="6"/>
       <c r="F400" s="7"/>
     </row>
-    <row r="401" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="401" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C401" s="6"/>
       <c r="F401" s="7"/>
     </row>
-    <row r="402" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="402" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C402" s="6"/>
       <c r="F402" s="7"/>
     </row>
-    <row r="403" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="403" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C403" s="6"/>
       <c r="F403" s="7"/>
     </row>
-    <row r="404" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="404" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C404" s="6"/>
       <c r="F404" s="7"/>
     </row>
-    <row r="405" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="405" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C405" s="6"/>
       <c r="F405" s="7"/>
     </row>
-    <row r="406" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="406" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C406" s="6"/>
       <c r="F406" s="7"/>
     </row>
-    <row r="407" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="407" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C407" s="6"/>
       <c r="F407" s="7"/>
     </row>
-    <row r="408" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="408" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C408" s="6"/>
       <c r="F408" s="7"/>
     </row>
-    <row r="409" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="409" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C409" s="6"/>
       <c r="F409" s="7"/>
     </row>
-    <row r="410" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="410" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C410" s="6"/>
       <c r="F410" s="7"/>
     </row>
-    <row r="411" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="411" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C411" s="6"/>
       <c r="F411" s="7"/>
     </row>
-    <row r="412" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="412" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C412" s="6"/>
       <c r="F412" s="7"/>
     </row>
-    <row r="413" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="413" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C413" s="6"/>
       <c r="F413" s="7"/>
     </row>
-    <row r="414" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="414" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C414" s="6"/>
       <c r="F414" s="7"/>
     </row>
-    <row r="415" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="415" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C415" s="6"/>
       <c r="F415" s="7"/>
     </row>
-    <row r="416" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="416" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C416" s="6"/>
       <c r="F416" s="7"/>
     </row>
-    <row r="417" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="417" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C417" s="6"/>
       <c r="F417" s="7"/>
     </row>
-    <row r="418" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="418" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C418" s="6"/>
       <c r="F418" s="7"/>
     </row>
-    <row r="419" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="419" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C419" s="6"/>
       <c r="F419" s="7"/>
     </row>
-    <row r="420" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="420" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C420" s="6"/>
       <c r="F420" s="7"/>
     </row>
-    <row r="421" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="421" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C421" s="6"/>
       <c r="F421" s="7"/>
     </row>
-    <row r="422" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="422" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C422" s="6"/>
       <c r="F422" s="7"/>
     </row>
-    <row r="423" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="423" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C423" s="6"/>
       <c r="F423" s="7"/>
     </row>
-    <row r="424" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="424" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C424" s="6"/>
       <c r="F424" s="7"/>
     </row>
-    <row r="425" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="425" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C425" s="6"/>
       <c r="F425" s="7"/>
     </row>
-    <row r="426" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="426" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C426" s="6"/>
       <c r="F426" s="7"/>
     </row>
-    <row r="427" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="427" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C427" s="6"/>
       <c r="F427" s="7"/>
     </row>
-    <row r="428" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="428" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C428" s="6"/>
       <c r="F428" s="7"/>
     </row>
-    <row r="429" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="429" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C429" s="6"/>
       <c r="F429" s="7"/>
     </row>
-    <row r="430" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="430" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C430" s="6"/>
       <c r="F430" s="7"/>
     </row>
-    <row r="431" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="431" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C431" s="6"/>
       <c r="F431" s="7"/>
     </row>
-    <row r="432" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="432" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C432" s="6"/>
       <c r="F432" s="7"/>
     </row>
-    <row r="433" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="433" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C433" s="6"/>
       <c r="F433" s="7"/>
     </row>
-    <row r="434" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="434" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C434" s="6"/>
       <c r="F434" s="7"/>
     </row>
-    <row r="435" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="435" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C435" s="6"/>
       <c r="F435" s="7"/>
     </row>
-    <row r="436" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="436" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C436" s="6"/>
       <c r="F436" s="7"/>
     </row>
-    <row r="437" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="437" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C437" s="6"/>
       <c r="F437" s="7"/>
     </row>
-    <row r="438" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="438" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C438" s="6"/>
       <c r="F438" s="7"/>
     </row>
-    <row r="439" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="439" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C439" s="6"/>
       <c r="F439" s="7"/>
     </row>
-    <row r="440" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="440" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C440" s="6"/>
       <c r="F440" s="7"/>
     </row>
-    <row r="441" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="441" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C441" s="6"/>
       <c r="F441" s="7"/>
     </row>
-    <row r="442" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="442" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C442" s="6"/>
       <c r="F442" s="7"/>
     </row>
-    <row r="443" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="443" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C443" s="6"/>
       <c r="F443" s="7"/>
     </row>
-    <row r="444" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="444" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C444" s="6"/>
       <c r="F444" s="7"/>
     </row>
-    <row r="445" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="445" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C445" s="6"/>
       <c r="F445" s="7"/>
     </row>
-    <row r="446" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="446" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C446" s="6"/>
       <c r="F446" s="7"/>
     </row>
-    <row r="447" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="447" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C447" s="6"/>
       <c r="F447" s="7"/>
     </row>
-    <row r="448" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="448" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C448" s="6"/>
       <c r="F448" s="7"/>
     </row>
-    <row r="449" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="449" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C449" s="6"/>
       <c r="F449" s="7"/>
     </row>
-    <row r="450" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="450" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C450" s="6"/>
       <c r="F450" s="7"/>
     </row>
-    <row r="451" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="451" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C451" s="6"/>
       <c r="F451" s="7"/>
     </row>
-    <row r="452" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="452" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C452" s="6"/>
       <c r="F452" s="7"/>
     </row>
-    <row r="453" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="453" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C453" s="6"/>
       <c r="F453" s="7"/>
     </row>
-    <row r="454" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="454" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C454" s="6"/>
       <c r="F454" s="7"/>
     </row>
-    <row r="455" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="455" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C455" s="6"/>
       <c r="F455" s="7"/>
     </row>
-    <row r="456" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="456" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C456" s="6"/>
       <c r="F456" s="7"/>
     </row>
-    <row r="457" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="457" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C457" s="6"/>
       <c r="F457" s="7"/>
     </row>
-    <row r="458" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="458" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C458" s="6"/>
       <c r="F458" s="7"/>
     </row>
-    <row r="459" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="459" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C459" s="6"/>
       <c r="F459" s="7"/>
     </row>
-    <row r="460" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="460" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C460" s="6"/>
       <c r="F460" s="7"/>
     </row>
-    <row r="461" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="461" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C461" s="6"/>
       <c r="F461" s="7"/>
     </row>
-    <row r="462" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="462" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C462" s="6"/>
       <c r="F462" s="7"/>
     </row>
-    <row r="463" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="463" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C463" s="6"/>
       <c r="F463" s="7"/>
     </row>
-    <row r="464" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="464" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C464" s="6"/>
       <c r="F464" s="7"/>
     </row>
-    <row r="465" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="465" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C465" s="6"/>
       <c r="F465" s="7"/>
     </row>
-    <row r="466" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="466" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C466" s="6"/>
       <c r="F466" s="7"/>
     </row>
-    <row r="467" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="467" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C467" s="6"/>
       <c r="F467" s="7"/>
     </row>
-    <row r="468" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="468" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C468" s="6"/>
       <c r="F468" s="7"/>
     </row>
-    <row r="469" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="469" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C469" s="6"/>
       <c r="F469" s="7"/>
     </row>
-    <row r="470" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="470" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C470" s="6"/>
       <c r="F470" s="7"/>
     </row>
-    <row r="471" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="471" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C471" s="6"/>
       <c r="F471" s="7"/>
     </row>
-    <row r="472" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="472" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C472" s="6"/>
       <c r="F472" s="7"/>
     </row>
-    <row r="473" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="473" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C473" s="6"/>
       <c r="F473" s="7"/>
     </row>
-    <row r="474" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="474" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C474" s="6"/>
       <c r="F474" s="7"/>
     </row>
-    <row r="475" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="475" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C475" s="6"/>
       <c r="F475" s="7"/>
     </row>
-    <row r="476" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="476" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C476" s="6"/>
       <c r="F476" s="7"/>
     </row>
-    <row r="477" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="477" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C477" s="6"/>
       <c r="F477" s="7"/>
     </row>
-    <row r="478" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="478" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C478" s="6"/>
       <c r="F478" s="7"/>
     </row>
-    <row r="479" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="479" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C479" s="6"/>
       <c r="F479" s="7"/>
     </row>
-    <row r="480" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="480" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C480" s="6"/>
       <c r="F480" s="7"/>
     </row>
-    <row r="481" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="481" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C481" s="6"/>
       <c r="F481" s="7"/>
     </row>
-    <row r="482" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="482" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C482" s="6"/>
       <c r="F482" s="7"/>
     </row>
-    <row r="483" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="483" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C483" s="6"/>
       <c r="F483" s="7"/>
     </row>
-    <row r="484" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="484" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C484" s="6"/>
       <c r="F484" s="7"/>
     </row>
-    <row r="485" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="485" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C485" s="6"/>
       <c r="F485" s="7"/>
     </row>
-    <row r="486" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="486" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C486" s="6"/>
       <c r="F486" s="7"/>
     </row>
-    <row r="487" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="487" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C487" s="6"/>
       <c r="F487" s="7"/>
     </row>
-    <row r="488" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="488" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C488" s="6"/>
       <c r="F488" s="7"/>
     </row>
-    <row r="489" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="489" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C489" s="6"/>
       <c r="F489" s="7"/>
     </row>
-    <row r="490" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="490" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C490" s="6"/>
       <c r="F490" s="7"/>
     </row>
-    <row r="491" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="491" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C491" s="6"/>
       <c r="F491" s="7"/>
     </row>
-    <row r="492" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="492" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C492" s="6"/>
       <c r="F492" s="7"/>
     </row>
-    <row r="493" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="493" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C493" s="6"/>
       <c r="F493" s="7"/>
     </row>
-    <row r="494" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="494" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C494" s="6"/>
       <c r="F494" s="7"/>
     </row>
-    <row r="495" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="495" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C495" s="6"/>
       <c r="F495" s="7"/>
     </row>
-    <row r="496" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="496" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C496" s="6"/>
       <c r="F496" s="7"/>
     </row>
-    <row r="497" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="497" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C497" s="6"/>
       <c r="F497" s="7"/>
     </row>
-    <row r="498" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="498" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C498" s="6"/>
       <c r="F498" s="7"/>
     </row>
-    <row r="499" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="499" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C499" s="6"/>
       <c r="F499" s="7"/>
     </row>
-    <row r="500" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="500" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C500" s="6"/>
       <c r="F500" s="7"/>
     </row>
-    <row r="501" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="501" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C501" s="6"/>
       <c r="F501" s="7"/>
     </row>
-    <row r="502" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="502" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C502" s="6"/>
       <c r="F502" s="7"/>
     </row>
-    <row r="503" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="503" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C503" s="6"/>
       <c r="F503" s="7"/>
     </row>
-    <row r="504" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="504" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C504" s="6"/>
       <c r="F504" s="7"/>
     </row>
-    <row r="505" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="505" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C505" s="6"/>
       <c r="F505" s="7"/>
     </row>
-    <row r="506" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="506" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C506" s="6"/>
       <c r="F506" s="7"/>
     </row>
-    <row r="507" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="507" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C507" s="6"/>
       <c r="F507" s="7"/>
     </row>
-    <row r="508" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="508" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C508" s="6"/>
       <c r="F508" s="7"/>
     </row>
-    <row r="509" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="509" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C509" s="6"/>
       <c r="F509" s="7"/>
     </row>
-    <row r="510" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="510" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C510" s="6"/>
       <c r="F510" s="7"/>
     </row>
-    <row r="511" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="511" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C511" s="6"/>
       <c r="F511" s="7"/>
     </row>
-    <row r="512" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="512" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C512" s="6"/>
       <c r="F512" s="7"/>
     </row>
-    <row r="513" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="513" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C513" s="6"/>
       <c r="F513" s="7"/>
     </row>
-    <row r="514" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="514" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C514" s="6"/>
       <c r="F514" s="7"/>
     </row>
-    <row r="515" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="515" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C515" s="6"/>
       <c r="F515" s="7"/>
     </row>
-    <row r="516" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="516" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C516" s="6"/>
       <c r="F516" s="7"/>
     </row>
-    <row r="517" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="517" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C517" s="6"/>
       <c r="F517" s="7"/>
     </row>
-    <row r="518" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="518" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C518" s="6"/>
       <c r="F518" s="7"/>
     </row>
-    <row r="519" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="519" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C519" s="6"/>
       <c r="F519" s="7"/>
     </row>
-    <row r="520" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="520" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C520" s="6"/>
       <c r="F520" s="7"/>
     </row>
-    <row r="521" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="521" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C521" s="6"/>
       <c r="F521" s="7"/>
     </row>
-    <row r="522" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="522" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C522" s="6"/>
       <c r="F522" s="7"/>
     </row>
-    <row r="523" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="523" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C523" s="6"/>
       <c r="F523" s="7"/>
     </row>
-    <row r="524" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="524" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C524" s="6"/>
       <c r="F524" s="7"/>
     </row>
-    <row r="525" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="525" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C525" s="6"/>
       <c r="F525" s="7"/>
     </row>
-    <row r="526" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="526" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C526" s="6"/>
       <c r="F526" s="7"/>
     </row>
-    <row r="527" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="527" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C527" s="6"/>
       <c r="F527" s="7"/>
     </row>
-    <row r="528" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="528" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C528" s="6"/>
       <c r="F528" s="7"/>
     </row>
-    <row r="529" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="529" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C529" s="6"/>
       <c r="F529" s="7"/>
     </row>
-    <row r="530" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="530" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C530" s="6"/>
       <c r="F530" s="7"/>
     </row>
-    <row r="531" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="531" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C531" s="6"/>
       <c r="F531" s="7"/>
     </row>
-    <row r="532" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="532" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C532" s="6"/>
       <c r="F532" s="7"/>
     </row>
-    <row r="533" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="533" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C533" s="6"/>
       <c r="F533" s="7"/>
     </row>
-    <row r="534" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="534" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C534" s="6"/>
       <c r="F534" s="7"/>
     </row>
-    <row r="535" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="535" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C535" s="6"/>
       <c r="F535" s="7"/>
     </row>
-    <row r="536" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="536" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C536" s="6"/>
       <c r="F536" s="7"/>
     </row>
-    <row r="537" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="537" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C537" s="6"/>
       <c r="F537" s="7"/>
     </row>
-    <row r="538" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="538" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C538" s="6"/>
       <c r="F538" s="7"/>
     </row>
-    <row r="539" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="539" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C539" s="6"/>
       <c r="F539" s="7"/>
     </row>
-    <row r="540" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="540" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C540" s="6"/>
       <c r="F540" s="7"/>
     </row>
-    <row r="541" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="541" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C541" s="6"/>
       <c r="F541" s="7"/>
     </row>
-    <row r="542" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="542" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C542" s="6"/>
       <c r="F542" s="7"/>
     </row>
-    <row r="543" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="543" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C543" s="6"/>
       <c r="F543" s="7"/>
     </row>
-    <row r="544" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="544" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C544" s="6"/>
       <c r="F544" s="7"/>
     </row>
-    <row r="545" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="545" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C545" s="6"/>
       <c r="F545" s="7"/>
     </row>
-    <row r="546" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="546" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C546" s="6"/>
       <c r="F546" s="7"/>
     </row>
-    <row r="547" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="547" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C547" s="6"/>
       <c r="F547" s="7"/>
     </row>
-    <row r="548" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="548" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C548" s="6"/>
       <c r="F548" s="7"/>
     </row>
-    <row r="549" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="549" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C549" s="6"/>
       <c r="F549" s="7"/>
     </row>
-    <row r="550" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="550" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C550" s="6"/>
       <c r="F550" s="7"/>
     </row>
-    <row r="551" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="551" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C551" s="6"/>
       <c r="F551" s="7"/>
     </row>
-    <row r="552" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="552" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C552" s="6"/>
       <c r="F552" s="7"/>
     </row>
-    <row r="553" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="553" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C553" s="6"/>
       <c r="F553" s="7"/>
     </row>
-    <row r="554" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="554" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C554" s="6"/>
       <c r="F554" s="7"/>
     </row>
-    <row r="555" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="555" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C555" s="6"/>
       <c r="F555" s="7"/>
     </row>
-    <row r="556" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="556" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C556" s="6"/>
       <c r="F556" s="7"/>
     </row>
-    <row r="557" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="557" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C557" s="6"/>
       <c r="F557" s="7"/>
     </row>
-    <row r="558" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="558" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C558" s="6"/>
       <c r="F558" s="7"/>
     </row>
-    <row r="559" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="559" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C559" s="6"/>
       <c r="F559" s="7"/>
     </row>
-    <row r="560" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="560" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C560" s="6"/>
       <c r="F560" s="7"/>
     </row>
-    <row r="561" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="561" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C561" s="6"/>
       <c r="F561" s="7"/>
     </row>
-    <row r="562" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="562" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C562" s="6"/>
       <c r="F562" s="7"/>
     </row>
-    <row r="563" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="563" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C563" s="6"/>
       <c r="F563" s="7"/>
     </row>
-    <row r="564" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="564" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C564" s="6"/>
       <c r="F564" s="7"/>
     </row>
-    <row r="565" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="565" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C565" s="6"/>
       <c r="F565" s="7"/>
     </row>
-    <row r="566" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="566" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C566" s="6"/>
       <c r="F566" s="7"/>
     </row>
-    <row r="567" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="567" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C567" s="6"/>
       <c r="F567" s="7"/>
     </row>
-    <row r="568" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="568" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C568" s="6"/>
       <c r="F568" s="7"/>
     </row>
-    <row r="569" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="569" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C569" s="6"/>
       <c r="F569" s="7"/>
     </row>
-    <row r="570" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="570" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C570" s="6"/>
       <c r="F570" s="7"/>
     </row>
-    <row r="571" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="571" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C571" s="6"/>
       <c r="F571" s="7"/>
     </row>
-    <row r="572" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="572" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C572" s="6"/>
       <c r="F572" s="7"/>
     </row>
-    <row r="573" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="573" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C573" s="6"/>
       <c r="F573" s="7"/>
     </row>
-    <row r="574" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="574" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C574" s="6"/>
       <c r="F574" s="7"/>
     </row>
-    <row r="575" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="575" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C575" s="6"/>
       <c r="F575" s="7"/>
     </row>
-    <row r="576" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="576" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C576" s="6"/>
       <c r="F576" s="7"/>
     </row>
-    <row r="577" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="577" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C577" s="6"/>
       <c r="F577" s="7"/>
     </row>
-    <row r="578" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="578" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C578" s="6"/>
       <c r="F578" s="7"/>
     </row>
-    <row r="579" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="579" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C579" s="6"/>
       <c r="F579" s="7"/>
     </row>
-    <row r="580" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="580" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C580" s="6"/>
       <c r="F580" s="7"/>
     </row>
-    <row r="581" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="581" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C581" s="6"/>
       <c r="F581" s="7"/>
     </row>
-    <row r="582" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="582" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C582" s="6"/>
       <c r="F582" s="7"/>
     </row>
-    <row r="583" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="583" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C583" s="6"/>
       <c r="F583" s="7"/>
     </row>
-    <row r="584" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="584" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C584" s="6"/>
       <c r="F584" s="7"/>
     </row>
-    <row r="585" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="585" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C585" s="6"/>
       <c r="F585" s="7"/>
     </row>
-    <row r="586" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="586" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C586" s="6"/>
       <c r="F586" s="7"/>
     </row>
-    <row r="587" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="587" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C587" s="6"/>
       <c r="F587" s="7"/>
     </row>
-    <row r="588" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="588" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C588" s="6"/>
       <c r="F588" s="7"/>
     </row>
-    <row r="589" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="589" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C589" s="6"/>
       <c r="F589" s="7"/>
     </row>
-    <row r="590" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="590" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C590" s="6"/>
       <c r="F590" s="7"/>
     </row>
-    <row r="591" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="591" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C591" s="6"/>
       <c r="F591" s="7"/>
     </row>
-    <row r="592" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="592" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C592" s="6"/>
       <c r="F592" s="7"/>
     </row>
-    <row r="593" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="593" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C593" s="6"/>
       <c r="F593" s="7"/>
     </row>
-    <row r="594" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="594" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C594" s="6"/>
       <c r="F594" s="7"/>
     </row>
-    <row r="595" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="595" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C595" s="6"/>
       <c r="F595" s="7"/>
     </row>
-    <row r="596" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="596" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C596" s="6"/>
       <c r="F596" s="7"/>
     </row>
-    <row r="597" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="597" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C597" s="6"/>
       <c r="F597" s="7"/>
     </row>
-    <row r="598" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="598" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C598" s="6"/>
       <c r="F598" s="7"/>
     </row>
-    <row r="599" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="599" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C599" s="6"/>
       <c r="F599" s="7"/>
     </row>
-    <row r="600" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="600" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C600" s="6"/>
       <c r="F600" s="7"/>
     </row>
-    <row r="601" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="601" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C601" s="6"/>
       <c r="F601" s="7"/>
     </row>
-    <row r="602" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="602" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C602" s="6"/>
       <c r="F602" s="7"/>
     </row>
-    <row r="603" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="603" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C603" s="6"/>
       <c r="F603" s="7"/>
     </row>
-    <row r="604" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="604" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C604" s="6"/>
       <c r="F604" s="7"/>
     </row>
-    <row r="605" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="605" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C605" s="6"/>
       <c r="F605" s="7"/>
     </row>
-    <row r="606" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="606" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C606" s="6"/>
       <c r="F606" s="7"/>
     </row>
-    <row r="607" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="607" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C607" s="6"/>
       <c r="F607" s="7"/>
     </row>
-    <row r="608" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="608" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C608" s="6"/>
       <c r="F608" s="7"/>
     </row>
-    <row r="609" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="609" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C609" s="6"/>
       <c r="F609" s="7"/>
     </row>
-    <row r="610" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="610" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C610" s="6"/>
       <c r="F610" s="7"/>
     </row>
-    <row r="611" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="611" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C611" s="6"/>
       <c r="F611" s="7"/>
     </row>
-    <row r="612" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="612" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C612" s="6"/>
       <c r="F612" s="7"/>
     </row>
-    <row r="613" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="613" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C613" s="6"/>
       <c r="F613" s="7"/>
     </row>
-    <row r="614" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="614" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C614" s="6"/>
       <c r="F614" s="7"/>
     </row>
-    <row r="615" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="615" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C615" s="6"/>
       <c r="F615" s="7"/>
     </row>
-    <row r="616" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="616" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C616" s="6"/>
       <c r="F616" s="7"/>
     </row>
-    <row r="617" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="617" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C617" s="6"/>
       <c r="F617" s="7"/>
     </row>
-    <row r="618" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="618" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C618" s="6"/>
       <c r="F618" s="7"/>
     </row>
-    <row r="619" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="619" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C619" s="6"/>
       <c r="F619" s="7"/>
     </row>
-    <row r="620" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="620" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C620" s="6"/>
       <c r="F620" s="7"/>
     </row>
-    <row r="621" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="621" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C621" s="6"/>
       <c r="F621" s="7"/>
     </row>
-    <row r="622" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="622" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C622" s="6"/>
       <c r="F622" s="7"/>
     </row>
-    <row r="623" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="623" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C623" s="6"/>
       <c r="F623" s="7"/>
     </row>
-    <row r="624" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="624" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C624" s="6"/>
       <c r="F624" s="7"/>
     </row>
-    <row r="625" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="625" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C625" s="6"/>
       <c r="F625" s="7"/>
     </row>
-    <row r="626" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="626" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C626" s="6"/>
       <c r="F626" s="7"/>
     </row>
-    <row r="627" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="627" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C627" s="6"/>
       <c r="F627" s="7"/>
     </row>
-    <row r="628" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="628" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C628" s="6"/>
       <c r="F628" s="7"/>
     </row>
-    <row r="629" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="629" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C629" s="6"/>
       <c r="F629" s="7"/>
     </row>
-    <row r="630" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="630" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C630" s="6"/>
       <c r="F630" s="7"/>
     </row>
-    <row r="631" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="631" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C631" s="6"/>
       <c r="F631" s="7"/>
     </row>
-    <row r="632" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="632" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C632" s="6"/>
       <c r="F632" s="7"/>
     </row>
-    <row r="633" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="633" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C633" s="6"/>
       <c r="F633" s="7"/>
     </row>
-    <row r="634" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="634" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C634" s="6"/>
       <c r="F634" s="7"/>
     </row>
-    <row r="635" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="635" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C635" s="6"/>
       <c r="F635" s="7"/>
     </row>
-    <row r="636" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="636" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C636" s="6"/>
       <c r="F636" s="7"/>
     </row>
-    <row r="637" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="637" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C637" s="6"/>
       <c r="F637" s="7"/>
     </row>
-    <row r="638" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="638" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C638" s="6"/>
       <c r="F638" s="7"/>
     </row>
-    <row r="639" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="639" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C639" s="6"/>
       <c r="F639" s="7"/>
     </row>
-    <row r="640" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="640" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C640" s="6"/>
       <c r="F640" s="7"/>
     </row>
-    <row r="641" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="641" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C641" s="6"/>
       <c r="F641" s="7"/>
     </row>
-    <row r="642" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="642" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C642" s="6"/>
       <c r="F642" s="7"/>
     </row>
-    <row r="643" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="643" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C643" s="6"/>
       <c r="F643" s="7"/>
     </row>
-    <row r="644" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="644" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C644" s="6"/>
       <c r="F644" s="7"/>
     </row>
-    <row r="645" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="645" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C645" s="6"/>
       <c r="F645" s="7"/>
     </row>
-    <row r="646" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="646" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C646" s="6"/>
       <c r="F646" s="7"/>
     </row>
-    <row r="647" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="647" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C647" s="6"/>
       <c r="F647" s="7"/>
     </row>
-    <row r="648" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="648" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C648" s="6"/>
       <c r="F648" s="7"/>
     </row>
-    <row r="649" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="649" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C649" s="6"/>
       <c r="F649" s="7"/>
     </row>
-    <row r="650" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="650" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C650" s="6"/>
       <c r="F650" s="7"/>
     </row>
-    <row r="651" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="651" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C651" s="6"/>
       <c r="F651" s="7"/>
     </row>
-    <row r="652" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="652" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C652" s="6"/>
       <c r="F652" s="7"/>
     </row>
-    <row r="653" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="653" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C653" s="6"/>
       <c r="F653" s="7"/>
     </row>
-    <row r="654" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="654" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C654" s="6"/>
       <c r="F654" s="7"/>
     </row>
-    <row r="655" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="655" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C655" s="6"/>
       <c r="F655" s="7"/>
     </row>
-    <row r="656" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="656" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C656" s="6"/>
       <c r="F656" s="7"/>
     </row>
-    <row r="657" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="657" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C657" s="6"/>
       <c r="F657" s="7"/>
     </row>
-    <row r="658" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="658" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C658" s="6"/>
       <c r="F658" s="7"/>
     </row>
-    <row r="659" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="659" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C659" s="6"/>
       <c r="F659" s="7"/>
     </row>
-    <row r="660" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="660" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C660" s="6"/>
       <c r="F660" s="7"/>
     </row>
-    <row r="661" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="661" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C661" s="6"/>
       <c r="F661" s="7"/>
     </row>
-    <row r="662" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="662" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C662" s="6"/>
       <c r="F662" s="7"/>
     </row>
-    <row r="663" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="663" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C663" s="6"/>
       <c r="F663" s="7"/>
     </row>
-    <row r="664" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="664" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C664" s="6"/>
       <c r="F664" s="7"/>
     </row>
-    <row r="665" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="665" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C665" s="6"/>
       <c r="F665" s="7"/>
     </row>
-    <row r="666" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="666" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C666" s="6"/>
       <c r="F666" s="7"/>
     </row>
-    <row r="667" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="667" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C667" s="6"/>
       <c r="F667" s="7"/>
     </row>
-    <row r="668" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="668" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C668" s="6"/>
       <c r="F668" s="7"/>
     </row>
-    <row r="669" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="669" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C669" s="6"/>
       <c r="F669" s="7"/>
     </row>
-    <row r="670" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="670" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C670" s="6"/>
       <c r="F670" s="7"/>
     </row>
-    <row r="671" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="671" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C671" s="6"/>
       <c r="F671" s="7"/>
     </row>
-    <row r="672" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="672" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C672" s="6"/>
       <c r="F672" s="7"/>
     </row>
-    <row r="673" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="673" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C673" s="6"/>
       <c r="F673" s="7"/>
     </row>
-    <row r="674" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="674" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C674" s="6"/>
       <c r="F674" s="7"/>
     </row>
-    <row r="675" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="675" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C675" s="6"/>
       <c r="F675" s="7"/>
     </row>
-    <row r="676" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="676" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C676" s="6"/>
       <c r="F676" s="7"/>
     </row>
-    <row r="677" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="677" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C677" s="6"/>
       <c r="F677" s="7"/>
     </row>
-    <row r="678" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="678" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C678" s="6"/>
       <c r="F678" s="7"/>
     </row>
-    <row r="679" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="679" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C679" s="6"/>
       <c r="F679" s="7"/>
     </row>
-    <row r="680" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="680" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C680" s="6"/>
       <c r="F680" s="7"/>
     </row>
-    <row r="681" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="681" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C681" s="6"/>
       <c r="F681" s="7"/>
     </row>
-    <row r="682" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="682" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C682" s="6"/>
       <c r="F682" s="7"/>
     </row>
-    <row r="683" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="683" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C683" s="6"/>
       <c r="F683" s="7"/>
     </row>
-    <row r="684" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="684" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C684" s="6"/>
       <c r="F684" s="7"/>
     </row>
-    <row r="685" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="685" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C685" s="6"/>
       <c r="F685" s="7"/>
     </row>
-    <row r="686" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="686" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C686" s="6"/>
       <c r="F686" s="7"/>
     </row>
-    <row r="687" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="687" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C687" s="6"/>
       <c r="F687" s="7"/>
     </row>
-    <row r="688" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="688" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C688" s="6"/>
       <c r="F688" s="7"/>
     </row>
-    <row r="689" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="689" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C689" s="6"/>
       <c r="F689" s="7"/>
     </row>
-    <row r="690" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="690" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C690" s="6"/>
       <c r="F690" s="7"/>
     </row>
-    <row r="691" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="691" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C691" s="6"/>
       <c r="F691" s="7"/>
     </row>
-    <row r="692" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="692" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C692" s="6"/>
       <c r="F692" s="7"/>
     </row>
-    <row r="693" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="693" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C693" s="6"/>
       <c r="F693" s="7"/>
     </row>
-    <row r="694" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="694" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C694" s="6"/>
       <c r="F694" s="7"/>
     </row>
-    <row r="695" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="695" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C695" s="6"/>
       <c r="F695" s="7"/>
     </row>
-    <row r="696" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="696" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C696" s="6"/>
       <c r="F696" s="7"/>
     </row>
-    <row r="697" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="697" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C697" s="6"/>
       <c r="F697" s="7"/>
     </row>
-    <row r="698" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="698" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C698" s="6"/>
       <c r="F698" s="7"/>
     </row>
-    <row r="699" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="699" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C699" s="6"/>
       <c r="F699" s="7"/>
     </row>
-    <row r="700" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="700" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C700" s="6"/>
       <c r="F700" s="7"/>
     </row>
-    <row r="701" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="701" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C701" s="6"/>
       <c r="F701" s="7"/>
     </row>
-    <row r="702" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="702" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C702" s="6"/>
       <c r="F702" s="7"/>
     </row>
-    <row r="703" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="703" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C703" s="6"/>
       <c r="F703" s="7"/>
     </row>
-    <row r="704" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="704" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C704" s="6"/>
       <c r="F704" s="7"/>
     </row>
-    <row r="705" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="705" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C705" s="6"/>
       <c r="F705" s="7"/>
     </row>
-    <row r="706" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="706" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C706" s="6"/>
       <c r="F706" s="7"/>
     </row>
-    <row r="707" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="707" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C707" s="6"/>
       <c r="F707" s="7"/>
     </row>
-    <row r="708" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="708" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C708" s="6"/>
       <c r="F708" s="7"/>
     </row>
-    <row r="709" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="709" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C709" s="6"/>
       <c r="F709" s="7"/>
     </row>
-    <row r="710" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="710" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C710" s="6"/>
       <c r="F710" s="7"/>
     </row>
-    <row r="711" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="711" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C711" s="6"/>
       <c r="F711" s="7"/>
     </row>
-    <row r="712" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="712" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C712" s="6"/>
       <c r="F712" s="7"/>
     </row>
-    <row r="713" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="713" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C713" s="6"/>
       <c r="F713" s="7"/>
     </row>
-    <row r="714" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="714" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C714" s="6"/>
       <c r="F714" s="7"/>
     </row>
-    <row r="715" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="715" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C715" s="6"/>
       <c r="F715" s="7"/>
     </row>
-    <row r="716" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="716" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C716" s="6"/>
       <c r="F716" s="7"/>
     </row>
-    <row r="717" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="717" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C717" s="6"/>
       <c r="F717" s="7"/>
     </row>
-    <row r="718" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="718" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C718" s="6"/>
       <c r="F718" s="7"/>
     </row>
-    <row r="719" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="719" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C719" s="6"/>
       <c r="F719" s="7"/>
     </row>
-    <row r="720" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="720" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C720" s="6"/>
       <c r="F720" s="7"/>
     </row>
-    <row r="721" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="721" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C721" s="6"/>
       <c r="F721" s="7"/>
     </row>
-    <row r="722" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="722" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C722" s="6"/>
       <c r="F722" s="7"/>
     </row>
-    <row r="723" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="723" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C723" s="6"/>
       <c r="F723" s="7"/>
     </row>
-    <row r="724" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="724" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C724" s="6"/>
       <c r="F724" s="7"/>
     </row>
-    <row r="725" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="725" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C725" s="6"/>
       <c r="F725" s="7"/>
     </row>
-    <row r="726" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="726" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C726" s="6"/>
       <c r="F726" s="7"/>
     </row>
-    <row r="727" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="727" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C727" s="6"/>
       <c r="F727" s="7"/>
     </row>
-    <row r="728" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="728" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C728" s="6"/>
       <c r="F728" s="7"/>
     </row>
-    <row r="729" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="729" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C729" s="6"/>
       <c r="F729" s="7"/>
     </row>
-    <row r="730" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="730" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C730" s="6"/>
       <c r="F730" s="7"/>
     </row>
-    <row r="731" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="731" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C731" s="6"/>
       <c r="F731" s="7"/>
     </row>
-    <row r="732" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="732" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C732" s="6"/>
       <c r="F732" s="7"/>
     </row>
-    <row r="733" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="733" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C733" s="6"/>
       <c r="F733" s="7"/>
     </row>
-    <row r="734" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="734" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C734" s="6"/>
       <c r="F734" s="7"/>
     </row>
-    <row r="735" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="735" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C735" s="6"/>
       <c r="F735" s="7"/>
     </row>
-    <row r="736" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="736" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C736" s="6"/>
       <c r="F736" s="7"/>
     </row>
-    <row r="737" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="737" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C737" s="6"/>
       <c r="F737" s="7"/>
     </row>
-    <row r="738" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="738" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C738" s="6"/>
       <c r="F738" s="7"/>
     </row>
-    <row r="739" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="739" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C739" s="6"/>
       <c r="F739" s="7"/>
     </row>
-    <row r="740" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="740" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C740" s="6"/>
       <c r="F740" s="7"/>
     </row>
-    <row r="741" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="741" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C741" s="6"/>
       <c r="F741" s="7"/>
     </row>
-    <row r="742" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="742" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C742" s="6"/>
       <c r="F742" s="7"/>
     </row>
-    <row r="743" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="743" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C743" s="6"/>
       <c r="F743" s="7"/>
     </row>
-    <row r="744" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="744" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C744" s="6"/>
       <c r="F744" s="7"/>
     </row>
-    <row r="745" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="745" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C745" s="6"/>
       <c r="F745" s="7"/>
     </row>
-    <row r="746" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="746" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C746" s="6"/>
       <c r="F746" s="7"/>
     </row>
-    <row r="747" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="747" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C747" s="6"/>
       <c r="F747" s="7"/>
     </row>
-    <row r="748" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="748" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C748" s="6"/>
       <c r="F748" s="7"/>
     </row>
-    <row r="749" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="749" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C749" s="6"/>
       <c r="F749" s="7"/>
     </row>
-    <row r="750" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="750" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C750" s="6"/>
       <c r="F750" s="7"/>
     </row>
-    <row r="751" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="751" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C751" s="6"/>
       <c r="F751" s="7"/>
     </row>
-    <row r="752" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="752" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C752" s="6"/>
       <c r="F752" s="7"/>
     </row>
-    <row r="753" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="753" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C753" s="6"/>
       <c r="F753" s="7"/>
     </row>
-    <row r="754" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="754" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C754" s="6"/>
       <c r="F754" s="7"/>
     </row>
-    <row r="755" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="755" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C755" s="6"/>
       <c r="F755" s="7"/>
     </row>
-    <row r="756" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="756" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C756" s="6"/>
       <c r="F756" s="7"/>
     </row>
-    <row r="757" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="757" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C757" s="6"/>
       <c r="F757" s="7"/>
     </row>
-    <row r="758" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="758" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C758" s="6"/>
       <c r="F758" s="7"/>
     </row>
-    <row r="759" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="759" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C759" s="6"/>
       <c r="F759" s="7"/>
     </row>
-    <row r="760" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="760" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C760" s="6"/>
       <c r="F760" s="7"/>
     </row>
-    <row r="761" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="761" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C761" s="6"/>
       <c r="F761" s="7"/>
     </row>
-    <row r="762" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="762" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C762" s="6"/>
       <c r="F762" s="7"/>
     </row>
-    <row r="763" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="763" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C763" s="6"/>
       <c r="F763" s="7"/>
     </row>
-    <row r="764" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="764" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C764" s="6"/>
       <c r="F764" s="7"/>
     </row>
-    <row r="765" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="765" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C765" s="6"/>
       <c r="F765" s="7"/>
     </row>
-    <row r="766" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="766" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C766" s="6"/>
       <c r="F766" s="7"/>
     </row>
-    <row r="767" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="767" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C767" s="6"/>
       <c r="F767" s="7"/>
     </row>
-    <row r="768" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="768" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C768" s="6"/>
       <c r="F768" s="7"/>
     </row>
-    <row r="769" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="769" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C769" s="6"/>
       <c r="F769" s="7"/>
     </row>
-    <row r="770" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="770" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C770" s="6"/>
       <c r="F770" s="7"/>
     </row>
-    <row r="771" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="771" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C771" s="6"/>
       <c r="F771" s="7"/>
     </row>
-    <row r="772" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="772" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C772" s="6"/>
       <c r="F772" s="7"/>
     </row>
-    <row r="773" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="773" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C773" s="6"/>
       <c r="F773" s="7"/>
     </row>
-    <row r="774" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="774" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C774" s="6"/>
       <c r="F774" s="7"/>
     </row>
-    <row r="775" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="775" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C775" s="6"/>
       <c r="F775" s="7"/>
     </row>
-    <row r="776" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="776" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C776" s="6"/>
       <c r="F776" s="7"/>
     </row>
-    <row r="777" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="777" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C777" s="6"/>
       <c r="F777" s="7"/>
     </row>
-    <row r="778" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="778" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C778" s="6"/>
       <c r="F778" s="7"/>
     </row>
-    <row r="779" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="779" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C779" s="6"/>
       <c r="F779" s="7"/>
     </row>
-    <row r="780" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="780" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C780" s="6"/>
       <c r="F780" s="7"/>
     </row>
-    <row r="781" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="781" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C781" s="6"/>
       <c r="F781" s="7"/>
     </row>
-    <row r="782" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="782" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C782" s="6"/>
       <c r="F782" s="7"/>
     </row>
-    <row r="783" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="783" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C783" s="6"/>
       <c r="F783" s="7"/>
     </row>
-    <row r="784" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="784" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C784" s="6"/>
       <c r="F784" s="7"/>
     </row>
-    <row r="785" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="785" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C785" s="6"/>
       <c r="F785" s="7"/>
     </row>
-    <row r="786" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="786" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C786" s="6"/>
       <c r="F786" s="7"/>
     </row>
-    <row r="787" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="787" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C787" s="6"/>
       <c r="F787" s="7"/>
     </row>
-    <row r="788" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="788" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C788" s="6"/>
       <c r="F788" s="7"/>
     </row>
-    <row r="789" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="789" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C789" s="6"/>
       <c r="F789" s="7"/>
     </row>
-    <row r="790" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="790" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C790" s="6"/>
       <c r="F790" s="7"/>
     </row>
-    <row r="791" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="791" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C791" s="6"/>
       <c r="F791" s="7"/>
     </row>
-    <row r="792" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="792" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C792" s="6"/>
       <c r="F792" s="7"/>
     </row>
-    <row r="793" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="793" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C793" s="6"/>
       <c r="F793" s="7"/>
     </row>
-    <row r="794" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="794" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C794" s="6"/>
       <c r="F794" s="7"/>
     </row>
-    <row r="795" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="795" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C795" s="6"/>
       <c r="F795" s="7"/>
     </row>
-    <row r="796" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="796" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C796" s="6"/>
       <c r="F796" s="7"/>
     </row>
-    <row r="797" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="797" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C797" s="6"/>
       <c r="F797" s="7"/>
     </row>
-    <row r="798" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="798" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C798" s="6"/>
       <c r="F798" s="7"/>
     </row>
-    <row r="799" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="799" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C799" s="6"/>
       <c r="F799" s="7"/>
     </row>
-    <row r="800" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="800" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C800" s="6"/>
       <c r="F800" s="7"/>
     </row>
-    <row r="801" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="801" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C801" s="6"/>
       <c r="F801" s="7"/>
     </row>
-    <row r="802" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="802" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C802" s="6"/>
       <c r="F802" s="7"/>
     </row>
-    <row r="803" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="803" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C803" s="6"/>
       <c r="F803" s="7"/>
     </row>
-    <row r="804" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="804" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C804" s="6"/>
       <c r="F804" s="7"/>
     </row>
-    <row r="805" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="805" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C805" s="6"/>
       <c r="F805" s="7"/>
     </row>
-    <row r="806" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="806" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C806" s="6"/>
       <c r="F806" s="7"/>
     </row>
-    <row r="807" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="807" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C807" s="6"/>
       <c r="F807" s="7"/>
     </row>
-    <row r="808" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="808" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C808" s="6"/>
       <c r="F808" s="7"/>
     </row>
-    <row r="809" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="809" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C809" s="6"/>
       <c r="F809" s="7"/>
     </row>
-    <row r="810" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="810" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C810" s="6"/>
       <c r="F810" s="7"/>
     </row>
-    <row r="811" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="811" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C811" s="6"/>
       <c r="F811" s="7"/>
     </row>
-    <row r="812" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="812" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C812" s="6"/>
       <c r="F812" s="7"/>
     </row>
-    <row r="813" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="813" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C813" s="6"/>
       <c r="F813" s="7"/>
     </row>
-    <row r="814" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="814" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C814" s="6"/>
       <c r="F814" s="7"/>
     </row>
-    <row r="815" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="815" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C815" s="6"/>
       <c r="F815" s="7"/>
     </row>
-    <row r="816" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="816" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C816" s="6"/>
       <c r="F816" s="7"/>
     </row>
-    <row r="817" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="817" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C817" s="6"/>
       <c r="F817" s="7"/>
     </row>
-    <row r="818" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="818" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C818" s="6"/>
       <c r="F818" s="7"/>
     </row>
-    <row r="819" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="819" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C819" s="6"/>
       <c r="F819" s="7"/>
     </row>
-    <row r="820" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="820" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C820" s="6"/>
       <c r="F820" s="7"/>
     </row>
-    <row r="821" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="821" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C821" s="6"/>
       <c r="F821" s="7"/>
     </row>
-    <row r="822" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="822" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C822" s="6"/>
       <c r="F822" s="7"/>
     </row>
-    <row r="823" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="823" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C823" s="6"/>
       <c r="F823" s="7"/>
     </row>
-    <row r="824" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="824" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C824" s="6"/>
       <c r="F824" s="7"/>
     </row>
-    <row r="825" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="825" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C825" s="6"/>
       <c r="F825" s="7"/>
     </row>
-    <row r="826" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="826" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C826" s="6"/>
       <c r="F826" s="7"/>
     </row>
-    <row r="827" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="827" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C827" s="6"/>
       <c r="F827" s="7"/>
     </row>
-    <row r="828" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="828" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C828" s="6"/>
       <c r="F828" s="7"/>
     </row>
-    <row r="829" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="829" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C829" s="6"/>
       <c r="F829" s="7"/>
     </row>
-    <row r="830" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="830" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C830" s="6"/>
       <c r="F830" s="7"/>
     </row>
-    <row r="831" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="831" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C831" s="6"/>
       <c r="F831" s="7"/>
     </row>
-    <row r="832" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="832" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C832" s="6"/>
       <c r="F832" s="7"/>
     </row>
-    <row r="833" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="833" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C833" s="6"/>
       <c r="F833" s="7"/>
     </row>
-    <row r="834" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="834" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C834" s="6"/>
       <c r="F834" s="7"/>
     </row>
-    <row r="835" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="835" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C835" s="6"/>
       <c r="F835" s="7"/>
     </row>
-    <row r="836" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="836" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C836" s="6"/>
       <c r="F836" s="7"/>
     </row>
-    <row r="837" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="837" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C837" s="6"/>
       <c r="F837" s="7"/>
     </row>
-    <row r="838" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="838" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C838" s="6"/>
       <c r="F838" s="7"/>
     </row>
-    <row r="839" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="839" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C839" s="6"/>
       <c r="F839" s="7"/>
     </row>
-    <row r="840" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="840" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C840" s="6"/>
       <c r="F840" s="7"/>
     </row>
-    <row r="841" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="841" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C841" s="6"/>
       <c r="F841" s="7"/>
     </row>
-    <row r="842" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="842" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C842" s="6"/>
       <c r="F842" s="7"/>
     </row>
-    <row r="843" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="843" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C843" s="6"/>
       <c r="F843" s="7"/>
     </row>
-    <row r="844" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="844" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C844" s="6"/>
       <c r="F844" s="7"/>
     </row>
-    <row r="845" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="845" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C845" s="6"/>
       <c r="F845" s="7"/>
     </row>
-    <row r="846" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="846" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C846" s="6"/>
       <c r="F846" s="7"/>
     </row>
-    <row r="847" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="847" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C847" s="6"/>
       <c r="F847" s="7"/>
     </row>
-    <row r="848" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="848" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C848" s="6"/>
       <c r="F848" s="7"/>
     </row>
-    <row r="849" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="849" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C849" s="6"/>
       <c r="F849" s="7"/>
     </row>
-    <row r="850" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="850" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C850" s="6"/>
       <c r="F850" s="7"/>
     </row>
-    <row r="851" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="851" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C851" s="6"/>
       <c r="F851" s="7"/>
     </row>
-    <row r="852" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="852" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C852" s="6"/>
       <c r="F852" s="7"/>
     </row>
-    <row r="853" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="853" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C853" s="6"/>
       <c r="F853" s="7"/>
     </row>
-    <row r="854" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="854" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C854" s="6"/>
       <c r="F854" s="7"/>
     </row>
-    <row r="855" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="855" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C855" s="6"/>
       <c r="F855" s="7"/>
     </row>
-    <row r="856" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="856" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C856" s="6"/>
       <c r="F856" s="7"/>
     </row>
-    <row r="857" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="857" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C857" s="6"/>
       <c r="F857" s="7"/>
     </row>
-    <row r="858" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="858" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C858" s="6"/>
       <c r="F858" s="7"/>
     </row>
-    <row r="859" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="859" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C859" s="6"/>
       <c r="F859" s="7"/>
     </row>
-    <row r="860" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="860" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C860" s="6"/>
       <c r="F860" s="7"/>
     </row>
-    <row r="861" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="861" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C861" s="6"/>
       <c r="F861" s="7"/>
     </row>
-    <row r="862" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="862" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C862" s="6"/>
       <c r="F862" s="7"/>
     </row>
-    <row r="863" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="863" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C863" s="6"/>
       <c r="F863" s="7"/>
     </row>
-    <row r="864" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="864" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C864" s="6"/>
       <c r="F864" s="7"/>
     </row>
-    <row r="865" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="865" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C865" s="6"/>
       <c r="F865" s="7"/>
     </row>
-    <row r="866" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="866" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C866" s="6"/>
       <c r="F866" s="7"/>
     </row>
-    <row r="867" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="867" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C867" s="6"/>
       <c r="F867" s="7"/>
     </row>
-    <row r="868" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="868" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C868" s="6"/>
       <c r="F868" s="7"/>
     </row>
-    <row r="869" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="869" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C869" s="6"/>
       <c r="F869" s="7"/>
     </row>
-    <row r="870" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="870" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C870" s="6"/>
       <c r="F870" s="7"/>
     </row>
-    <row r="871" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="871" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C871" s="6"/>
       <c r="F871" s="7"/>
     </row>
-    <row r="872" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="872" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C872" s="6"/>
       <c r="F872" s="7"/>
     </row>
-    <row r="873" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="873" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C873" s="6"/>
       <c r="F873" s="7"/>
     </row>
-    <row r="874" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="874" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C874" s="6"/>
       <c r="F874" s="7"/>
     </row>
-    <row r="875" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="875" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C875" s="6"/>
       <c r="F875" s="7"/>
     </row>
-    <row r="876" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="876" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C876" s="6"/>
       <c r="F876" s="7"/>
     </row>
-    <row r="877" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="877" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C877" s="6"/>
       <c r="F877" s="7"/>
     </row>
-    <row r="878" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="878" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C878" s="6"/>
       <c r="F878" s="7"/>
     </row>
-    <row r="879" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="879" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C879" s="6"/>
       <c r="F879" s="7"/>
     </row>
-    <row r="880" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="880" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C880" s="6"/>
       <c r="F880" s="7"/>
     </row>
-    <row r="881" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="881" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C881" s="6"/>
       <c r="F881" s="7"/>
     </row>
-    <row r="882" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="882" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C882" s="6"/>
       <c r="F882" s="7"/>
     </row>
-    <row r="883" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="883" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C883" s="6"/>
       <c r="F883" s="7"/>
     </row>
-    <row r="884" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="884" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C884" s="6"/>
       <c r="F884" s="7"/>
     </row>
-    <row r="885" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="885" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C885" s="6"/>
       <c r="F885" s="7"/>
     </row>
-    <row r="886" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="886" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C886" s="6"/>
       <c r="F886" s="7"/>
     </row>
-    <row r="887" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="887" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C887" s="6"/>
       <c r="F887" s="7"/>
     </row>
-    <row r="888" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="888" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C888" s="6"/>
       <c r="F888" s="7"/>
     </row>
-    <row r="889" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="889" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C889" s="6"/>
       <c r="F889" s="7"/>
     </row>
-    <row r="890" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="890" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C890" s="6"/>
       <c r="F890" s="7"/>
     </row>
-    <row r="891" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="891" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C891" s="6"/>
       <c r="F891" s="7"/>
     </row>
-    <row r="892" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="892" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C892" s="6"/>
       <c r="F892" s="7"/>
     </row>
-    <row r="893" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="893" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C893" s="6"/>
       <c r="F893" s="7"/>
     </row>
-    <row r="894" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="894" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C894" s="6"/>
       <c r="F894" s="7"/>
     </row>
-    <row r="895" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="895" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C895" s="6"/>
       <c r="F895" s="7"/>
     </row>
-    <row r="896" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="896" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C896" s="6"/>
       <c r="F896" s="7"/>
     </row>
-    <row r="897" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="897" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C897" s="6"/>
       <c r="F897" s="7"/>
     </row>
-    <row r="898" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="898" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C898" s="6"/>
       <c r="F898" s="7"/>
     </row>
-    <row r="899" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="899" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C899" s="6"/>
       <c r="F899" s="7"/>
     </row>
-    <row r="900" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="900" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C900" s="6"/>
       <c r="F900" s="7"/>
     </row>
-    <row r="901" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="901" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C901" s="6"/>
       <c r="F901" s="7"/>
     </row>
-    <row r="902" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="902" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C902" s="6"/>
       <c r="F902" s="7"/>
     </row>
-    <row r="903" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="903" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C903" s="6"/>
       <c r="F903" s="7"/>
     </row>
-    <row r="904" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="904" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C904" s="6"/>
       <c r="F904" s="7"/>
     </row>
-    <row r="905" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="905" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C905" s="6"/>
       <c r="F905" s="7"/>
     </row>
-    <row r="906" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="906" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C906" s="6"/>
       <c r="F906" s="7"/>
     </row>
-    <row r="907" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="907" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C907" s="6"/>
       <c r="F907" s="7"/>
     </row>
-    <row r="908" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="908" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C908" s="6"/>
       <c r="F908" s="7"/>
     </row>
-    <row r="909" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="909" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C909" s="6"/>
       <c r="F909" s="7"/>
     </row>
-    <row r="910" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="910" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C910" s="6"/>
       <c r="F910" s="7"/>
     </row>
-    <row r="911" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="911" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C911" s="6"/>
       <c r="F911" s="7"/>
     </row>
-    <row r="912" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="912" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C912" s="6"/>
       <c r="F912" s="7"/>
     </row>
-    <row r="913" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="913" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C913" s="6"/>
       <c r="F913" s="7"/>
     </row>
-    <row r="914" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="914" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C914" s="6"/>
       <c r="F914" s="7"/>
     </row>
-    <row r="915" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="915" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C915" s="6"/>
       <c r="F915" s="7"/>
     </row>
-    <row r="916" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="916" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C916" s="6"/>
       <c r="F916" s="7"/>
     </row>
-    <row r="917" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="917" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C917" s="6"/>
       <c r="F917" s="7"/>
     </row>
-    <row r="918" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="918" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C918" s="6"/>
       <c r="F918" s="7"/>
     </row>
-    <row r="919" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="919" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C919" s="6"/>
       <c r="F919" s="7"/>
     </row>
-    <row r="920" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="920" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C920" s="6"/>
       <c r="F920" s="7"/>
     </row>
-    <row r="921" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="921" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C921" s="6"/>
       <c r="F921" s="7"/>
     </row>
-    <row r="922" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="922" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C922" s="6"/>
       <c r="F922" s="7"/>
     </row>
-    <row r="923" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="923" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C923" s="6"/>
       <c r="F923" s="7"/>
     </row>
-    <row r="924" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="924" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C924" s="6"/>
       <c r="F924" s="7"/>
     </row>
-    <row r="925" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="925" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C925" s="6"/>
       <c r="F925" s="7"/>
     </row>
-    <row r="926" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="926" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C926" s="6"/>
       <c r="F926" s="7"/>
     </row>
-    <row r="927" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="927" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C927" s="6"/>
       <c r="F927" s="7"/>
     </row>
-    <row r="928" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="928" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C928" s="6"/>
       <c r="F928" s="7"/>
     </row>
-    <row r="929" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="929" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C929" s="6"/>
       <c r="F929" s="7"/>
     </row>
-    <row r="930" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="930" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C930" s="6"/>
       <c r="F930" s="7"/>
     </row>
-    <row r="931" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="931" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C931" s="6"/>
       <c r="F931" s="7"/>
     </row>
-    <row r="932" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="932" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C932" s="6"/>
       <c r="F932" s="7"/>
     </row>
-    <row r="933" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="933" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C933" s="6"/>
       <c r="F933" s="7"/>
     </row>
-    <row r="934" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="934" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C934" s="6"/>
       <c r="F934" s="7"/>
     </row>
-    <row r="935" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="935" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C935" s="6"/>
       <c r="F935" s="7"/>
     </row>
-    <row r="936" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="936" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C936" s="6"/>
       <c r="F936" s="7"/>
     </row>
-    <row r="937" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="937" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C937" s="6"/>
       <c r="F937" s="7"/>
     </row>
-    <row r="938" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="938" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C938" s="6"/>
       <c r="F938" s="7"/>
     </row>
-    <row r="939" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="939" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C939" s="6"/>
       <c r="F939" s="7"/>
     </row>
-    <row r="940" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="940" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C940" s="6"/>
       <c r="F940" s="7"/>
     </row>
-    <row r="941" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="941" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C941" s="6"/>
       <c r="F941" s="7"/>
     </row>
-    <row r="942" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="942" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C942" s="6"/>
       <c r="F942" s="7"/>
     </row>
-    <row r="943" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="943" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C943" s="6"/>
       <c r="F943" s="7"/>
     </row>
-    <row r="944" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="944" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C944" s="6"/>
       <c r="F944" s="7"/>
     </row>
-    <row r="945" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="945" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C945" s="6"/>
       <c r="F945" s="7"/>
     </row>
-    <row r="946" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="946" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C946" s="6"/>
       <c r="F946" s="7"/>
     </row>
-    <row r="947" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="947" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C947" s="6"/>
       <c r="F947" s="7"/>
     </row>
-    <row r="948" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="948" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C948" s="6"/>
       <c r="F948" s="7"/>
     </row>
-    <row r="949" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="949" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C949" s="6"/>
       <c r="F949" s="7"/>
     </row>
-    <row r="950" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="950" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C950" s="6"/>
       <c r="F950" s="7"/>
     </row>
-    <row r="951" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="951" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C951" s="6"/>
       <c r="F951" s="7"/>
     </row>
-    <row r="952" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="952" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C952" s="6"/>
       <c r="F952" s="7"/>
     </row>
-    <row r="953" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="953" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C953" s="6"/>
       <c r="F953" s="7"/>
     </row>
-    <row r="954" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="954" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C954" s="6"/>
       <c r="F954" s="7"/>
     </row>
-    <row r="955" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="955" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C955" s="6"/>
       <c r="F955" s="7"/>
     </row>
-    <row r="956" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="956" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C956" s="6"/>
       <c r="F956" s="7"/>
     </row>
-    <row r="957" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="957" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C957" s="6"/>
       <c r="F957" s="7"/>
     </row>
-    <row r="958" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="958" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C958" s="6"/>
       <c r="F958" s="7"/>
     </row>
-    <row r="959" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="959" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C959" s="6"/>
       <c r="F959" s="7"/>
     </row>
-    <row r="960" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="960" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C960" s="6"/>
       <c r="F960" s="7"/>
     </row>
-    <row r="961" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="961" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C961" s="6"/>
       <c r="F961" s="7"/>
     </row>
-    <row r="962" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="962" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C962" s="6"/>
       <c r="F962" s="7"/>
     </row>
-    <row r="963" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="963" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C963" s="6"/>
       <c r="F963" s="7"/>
     </row>
-    <row r="964" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="964" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C964" s="6"/>
       <c r="F964" s="7"/>
     </row>
-    <row r="965" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="965" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C965" s="6"/>
       <c r="F965" s="7"/>
     </row>
-    <row r="966" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="966" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C966" s="6"/>
       <c r="F966" s="7"/>
     </row>
-    <row r="967" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="967" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C967" s="6"/>
       <c r="F967" s="7"/>
     </row>
-    <row r="968" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="968" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C968" s="6"/>
       <c r="F968" s="7"/>
     </row>
-    <row r="969" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="969" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C969" s="6"/>
       <c r="F969" s="7"/>
     </row>
-    <row r="970" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="970" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C970" s="6"/>
       <c r="F970" s="7"/>
     </row>
-    <row r="971" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="971" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C971" s="6"/>
       <c r="F971" s="7"/>
     </row>
-    <row r="972" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="972" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C972" s="6"/>
       <c r="F972" s="7"/>
     </row>
-    <row r="973" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="973" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C973" s="6"/>
       <c r="F973" s="7"/>
     </row>
-    <row r="974" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="974" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C974" s="6"/>
       <c r="F974" s="7"/>
     </row>
-    <row r="975" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="975" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C975" s="6"/>
       <c r="F975" s="7"/>
     </row>
-    <row r="976" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="976" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C976" s="6"/>
       <c r="F976" s="7"/>
     </row>
-    <row r="977" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="977" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C977" s="6"/>
       <c r="F977" s="7"/>
     </row>
-    <row r="978" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="978" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C978" s="6"/>
       <c r="F978" s="7"/>
     </row>
-    <row r="979" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="979" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C979" s="6"/>
       <c r="F979" s="7"/>
     </row>
-    <row r="980" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="980" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C980" s="6"/>
       <c r="F980" s="7"/>
     </row>
-    <row r="981" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="981" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C981" s="6"/>
       <c r="F981" s="7"/>
     </row>
-    <row r="982" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="982" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C982" s="6"/>
       <c r="F982" s="7"/>
     </row>
-    <row r="983" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="983" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C983" s="6"/>
       <c r="F983" s="7"/>
     </row>
-    <row r="984" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="984" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C984" s="6"/>
       <c r="F984" s="7"/>
     </row>
-    <row r="985" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="985" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C985" s="6"/>
       <c r="F985" s="7"/>
     </row>
-    <row r="986" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="986" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C986" s="6"/>
       <c r="F986" s="7"/>
     </row>
-    <row r="987" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="987" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C987" s="6"/>
       <c r="F987" s="7"/>
     </row>
-    <row r="988" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="988" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C988" s="6"/>
       <c r="F988" s="7"/>
     </row>
-    <row r="989" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="989" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C989" s="6"/>
       <c r="F989" s="7"/>
     </row>
-    <row r="990" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="990" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C990" s="6"/>
       <c r="F990" s="7"/>
     </row>
-    <row r="991" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="991" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C991" s="6"/>
       <c r="F991" s="7"/>
     </row>
-    <row r="992" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="992" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C992" s="6"/>
       <c r="F992" s="7"/>
     </row>
-    <row r="993" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="993" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C993" s="6"/>
       <c r="F993" s="7"/>
     </row>
-    <row r="994" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="994" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C994" s="6"/>
       <c r="F994" s="7"/>
     </row>
-    <row r="995" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="995" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C995" s="6"/>
       <c r="F995" s="7"/>
     </row>
-    <row r="996" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="996" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C996" s="6"/>
       <c r="F996" s="7"/>
     </row>
-    <row r="997" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="997" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C997" s="6"/>
       <c r="F997" s="7"/>
     </row>
-    <row r="998" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="998" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C998" s="6"/>
       <c r="F998" s="7"/>
     </row>
-    <row r="999" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="999" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C999" s="6"/>
       <c r="F999" s="7"/>
     </row>
-    <row r="1000" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1000" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C1000" s="6"/>
       <c r="F1000" s="7"/>
     </row>
-    <row r="1001" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1001" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C1001" s="6"/>
       <c r="F1001" s="7"/>
     </row>
-    <row r="1002" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1002" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C1002" s="6"/>
       <c r="F1002" s="7"/>
     </row>
-    <row r="1003" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1003" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C1003" s="6"/>
       <c r="F1003" s="7"/>
     </row>
-    <row r="1004" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1004" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C1004" s="6"/>
       <c r="F1004" s="7"/>
     </row>
-    <row r="1005" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1005" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C1005" s="6"/>
       <c r="F1005" s="7"/>
     </row>
-    <row r="1006" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1006" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C1006" s="6"/>
       <c r="F1006" s="7"/>
     </row>
-    <row r="1007" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1007" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C1007" s="6"/>
       <c r="F1007" s="7"/>
     </row>
-    <row r="1008" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1008" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C1008" s="6"/>
       <c r="F1008" s="7"/>
     </row>
@@ -9554,6 +9554,15 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
     <lcf76f155ced4ddcb4097134ff3c332f xmlns="dc8ea9bb-7be6-4347-bbbd-43ecd0226ab6">
@@ -9562,15 +9571,6 @@
     <TaxCatchAll xmlns="36965efa-5a39-45c9-9312-a4f852bee1e3" xsi:nil="true"/>
   </documentManagement>
 </p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -9593,6 +9593,14 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{118A9060-EF27-4670-A7BD-5FE79C142D77}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{072C8801-02D8-41B4-9C3A-C0871C6DF7B0}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
@@ -9601,12 +9609,4 @@
     <ds:schemaRef ds:uri="36965efa-5a39-45c9-9312-a4f852bee1e3"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{118A9060-EF27-4670-A7BD-5FE79C142D77}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/data/Codebook_template.xlsx
+++ b/data/Codebook_template.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25928"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://w1maccs.sharepoint.com/sites/SLRforABM/Freigegebene Dokumente/General/Analysis/R-code_git_project/SLR_ABMs_Ecology/data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://w1maccs.sharepoint.com/sites/SLRforABM/Freigegebene Dokumente/General/2_Analysis/R-code_git_project/SLR_ABMs_Ecology/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{588FB3E4-BBC5-4EDF-85C4-9F46F69E5C54}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="4" documentId="8_{588FB3E4-BBC5-4EDF-85C4-9F46F69E5C54}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{2FF6F6C6-EA58-4710-B8D3-DC0244470D45}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -912,12 +912,6 @@
     <t>Yes/No</t>
   </si>
   <si>
-    <t>Yes/No/Not as questions, but explicit aim or objective</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Yes/No/No keyword search </t>
-  </si>
-  <si>
     <t>Yes/No/No keyword search applied</t>
   </si>
   <si>
@@ -934,17 +928,30 @@
   </si>
   <si>
     <t>Integer/“N/A”/"No restiction"</t>
+  </si>
+  <si>
+    <t>Yes/No/Not as questions, but explicit aim or obejective</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Yes/No/No research question </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="26" x14ac:knownFonts="1">
+  <fonts count="27" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1445,12 +1452,12 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="126">
+  <cellXfs count="127">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="12" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" quotePrefix="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1462,32 +1469,32 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="12" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="16" fillId="6" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="6" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1"/>
@@ -1498,7 +1505,7 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="16" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="16" fillId="7" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="7" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1"/>
@@ -1511,24 +1518,24 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="19" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="16" fillId="7" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="7" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="12" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="16" fillId="7" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="7" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -1536,31 +1543,31 @@
     <xf numFmtId="0" fontId="0" fillId="8" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="12" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="16" fillId="8" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="8" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="17" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="12" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="16" fillId="9" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="9" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1"/>
@@ -1573,11 +1580,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1587,80 +1594,80 @@
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="24" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="16" fillId="7" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="7" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="17" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="23" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="10" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="10" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="10" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="23" fillId="10" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="10" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="10" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="6" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="6" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="24" fillId="10" borderId="0" xfId="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="25" fillId="10" borderId="0" xfId="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="11" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="7" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="7" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
@@ -1669,36 +1676,36 @@
     <xf numFmtId="0" fontId="0" fillId="11" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="11" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1710,46 +1717,49 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="22" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="23" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -2119,17 +2129,17 @@
       <c r="J6" s="2"/>
     </row>
     <row r="10" spans="2:13" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="B10" s="116" t="s">
+      <c r="B10" s="117" t="s">
         <v>5</v>
       </c>
-      <c r="C10" s="117"/>
-      <c r="D10" s="117"/>
-      <c r="E10" s="117"/>
-      <c r="F10" s="117"/>
-      <c r="G10" s="117"/>
-      <c r="H10" s="117"/>
-      <c r="I10" s="117"/>
-      <c r="J10" s="118"/>
+      <c r="C10" s="118"/>
+      <c r="D10" s="118"/>
+      <c r="E10" s="118"/>
+      <c r="F10" s="118"/>
+      <c r="G10" s="118"/>
+      <c r="H10" s="118"/>
+      <c r="I10" s="118"/>
+      <c r="J10" s="119"/>
       <c r="K10" s="4"/>
       <c r="L10" s="4"/>
       <c r="M10" s="4"/>
@@ -3313,9 +3323,9 @@
   </sheetPr>
   <dimension ref="B1:N1008"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A56" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="6" topLeftCell="G1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="I60" sqref="I60"/>
+      <selection pane="topRight" activeCell="H10" sqref="H10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1" outlineLevelRow="1" outlineLevelCol="1" x14ac:dyDescent="0.3"/>
@@ -3344,34 +3354,34 @@
       <c r="F2" s="112" t="s">
         <v>192</v>
       </c>
-      <c r="H2" s="125" t="s">
+      <c r="H2" s="126" t="s">
         <v>159</v>
       </c>
-      <c r="I2" s="125"/>
-      <c r="J2" s="125"/>
-      <c r="L2" s="121" t="s">
+      <c r="I2" s="126"/>
+      <c r="J2" s="126"/>
+      <c r="L2" s="122" t="s">
         <v>155</v>
       </c>
-      <c r="M2" s="122"/>
+      <c r="M2" s="123"/>
     </row>
     <row r="3" spans="2:14" ht="14.4" x14ac:dyDescent="0.3">
       <c r="C3" s="6"/>
       <c r="F3" s="7"/>
-      <c r="H3" s="125"/>
-      <c r="I3" s="125"/>
-      <c r="J3" s="125"/>
-      <c r="L3" s="121" t="s">
+      <c r="H3" s="126"/>
+      <c r="I3" s="126"/>
+      <c r="J3" s="126"/>
+      <c r="L3" s="122" t="s">
         <v>31</v>
       </c>
-      <c r="M3" s="122"/>
+      <c r="M3" s="123"/>
     </row>
     <row r="4" spans="2:14" ht="30.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C4" s="6"/>
       <c r="F4" s="7"/>
-      <c r="L4" s="123" t="s">
+      <c r="L4" s="124" t="s">
         <v>32</v>
       </c>
-      <c r="M4" s="124"/>
+      <c r="M4" s="125"/>
     </row>
     <row r="5" spans="2:14" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C5" s="8" t="s">
@@ -3471,8 +3481,8 @@
       <c r="G9" s="24" t="s">
         <v>33</v>
       </c>
-      <c r="H9" s="114" t="s">
-        <v>194</v>
+      <c r="H9" s="115" t="s">
+        <v>200</v>
       </c>
       <c r="I9" s="76" t="s">
         <v>140</v>
@@ -3500,8 +3510,8 @@
       <c r="G10" s="29" t="s">
         <v>33</v>
       </c>
-      <c r="H10" s="32" t="s">
-        <v>195</v>
+      <c r="H10" s="116" t="s">
+        <v>201</v>
       </c>
       <c r="I10" s="79" t="s">
         <v>141</v>
@@ -3702,7 +3712,7 @@
         <v>33</v>
       </c>
       <c r="H20" s="26" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="I20" s="54" t="s">
         <v>52</v>
@@ -3731,7 +3741,7 @@
         <v>33</v>
       </c>
       <c r="H21" s="26" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="I21" s="54" t="s">
         <v>183</v>
@@ -3758,7 +3768,7 @@
         <v>33</v>
       </c>
       <c r="H22" s="36" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="I22" s="37" t="s">
         <v>182</v>
@@ -3888,7 +3898,7 @@
         <v>33</v>
       </c>
       <c r="H27" s="26" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="I27" s="54"/>
       <c r="J27" s="24" t="s">
@@ -4413,7 +4423,7 @@
       </c>
       <c r="G48" s="29"/>
       <c r="H48" s="86" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="I48" s="33" t="s">
         <v>80</v>
@@ -4469,7 +4479,7 @@
         <v>33</v>
       </c>
       <c r="H50" s="100" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="I50" s="37" t="s">
         <v>175</v>
@@ -4716,8 +4726,8 @@
       <c r="G61" s="14" t="s">
         <v>33</v>
       </c>
-      <c r="H61" s="115" t="s">
-        <v>199</v>
+      <c r="H61" s="114" t="s">
+        <v>197</v>
       </c>
       <c r="I61" s="37" t="s">
         <v>86</v>
@@ -4820,7 +4830,7 @@
         <v>33</v>
       </c>
       <c r="H65" s="26" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="I65" s="67"/>
       <c r="J65" s="24" t="s">
@@ -5081,7 +5091,7 @@
       <c r="H77" s="36" t="s">
         <v>193</v>
       </c>
-      <c r="I77" s="119" t="s">
+      <c r="I77" s="120" t="s">
         <v>149</v>
       </c>
       <c r="L77" s="38"/>
@@ -5101,7 +5111,7 @@
       <c r="H78" s="36" t="s">
         <v>193</v>
       </c>
-      <c r="I78" s="120"/>
+      <c r="I78" s="121"/>
       <c r="L78" s="38"/>
       <c r="M78" s="39"/>
     </row>
@@ -5119,7 +5129,7 @@
       <c r="H79" s="36" t="s">
         <v>193</v>
       </c>
-      <c r="I79" s="120"/>
+      <c r="I79" s="121"/>
       <c r="L79" s="38"/>
       <c r="M79" s="39"/>
     </row>
@@ -9329,6 +9339,26 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="dc8ea9bb-7be6-4347-bbbd-43ecd0226ab6">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <TaxCatchAll xmlns="36965efa-5a39-45c9-9312-a4f852bee1e3" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Dokument" ma:contentTypeID="0x010100E28E13ACBC000A4C890C7EF62115DE09" ma:contentTypeVersion="13" ma:contentTypeDescription="Ein neues Dokument erstellen." ma:contentTypeScope="" ma:versionID="38c6947b388da27d619d5996577e48bb">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="dc8ea9bb-7be6-4347-bbbd-43ecd0226ab6" xmlns:ns3="36965efa-5a39-45c9-9312-a4f852bee1e3" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="2b0d313870efd85b4f0f8b7717aad82c" ns2:_="" ns3:_="">
     <xsd:import namespace="dc8ea9bb-7be6-4347-bbbd-43ecd0226ab6"/>
@@ -9553,27 +9583,26 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{118A9060-EF27-4670-A7BD-5FE79C142D77}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="dc8ea9bb-7be6-4347-bbbd-43ecd0226ab6">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <TaxCatchAll xmlns="36965efa-5a39-45c9-9312-a4f852bee1e3" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{072C8801-02D8-41B4-9C3A-C0871C6DF7B0}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="dc8ea9bb-7be6-4347-bbbd-43ecd0226ab6"/>
+    <ds:schemaRef ds:uri="36965efa-5a39-45c9-9312-a4f852bee1e3"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6ACD51B1-C9C5-4587-980D-DB52F05C9F9E}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -9590,23 +9619,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{118A9060-EF27-4670-A7BD-5FE79C142D77}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{072C8801-02D8-41B4-9C3A-C0871C6DF7B0}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="dc8ea9bb-7be6-4347-bbbd-43ecd0226ab6"/>
-    <ds:schemaRef ds:uri="36965efa-5a39-45c9-9312-a4f852bee1e3"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>